--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_263.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_263.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33182-d251268-Reviews-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>106</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-Torrance.h79470.Hotel-Information?chkin=6%2F21%2F2018&amp;chkout=6%2F22%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528309836574&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=c492ba25-5cd9-47bd-9d4e-c53ca119ac3c&amp;mctc=9&amp;exp_dp=119.33&amp;exp_ts=1528309837108&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_263.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_263.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1420 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r574223240-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>33182</t>
+  </si>
+  <si>
+    <t>251268</t>
+  </si>
+  <si>
+    <t>574223240</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>HORRIBLE CUSTOMER SERVICE</t>
+  </si>
+  <si>
+    <t>Only good thing about this place is the neighborhood. Staff is just horrible. Creepy male working front desk gave me nightmares, he’s so incompetent it’s sad. The female at front desk RUDE! She seems to hate her life... would not recommend this place at all... ur better off at a motel 6MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Only good thing about this place is the neighborhood. Staff is just horrible. Creepy male working front desk gave me nightmares, he’s so incompetent it’s sad. The female at front desk RUDE! She seems to hate her life... would not recommend this place at all... ur better off at a motel 6More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r565964976-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>565964976</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>WORST EVER HOTEL!</t>
+  </si>
+  <si>
+    <t>Expected higher level of cleanliness and more amenities for the price despite its advertising of minimal accommodations.  Staff also not knowledgeable about environs.  Check-in was good and the attendant was friendly, but that's where the satisfactory part of this stay ended.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Expected higher level of cleanliness and more amenities for the price despite its advertising of minimal accommodations.  Staff also not knowledgeable about environs.  Check-in was good and the attendant was friendly, but that's where the satisfactory part of this stay ended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r563470652-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>563470652</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>Torrance, Ca</t>
+  </si>
+  <si>
+    <t>The room was fine, I went to open the door under the sink and cabnet door to the right side of the sink. I went to cloase the sink door. My finger was caught in the door trying to close it. The cabnets doors should close is the same direction, that would stop a person from jamming the door on a finger. Since they close in opsite directions, you can easily pinch your finger.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded March 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2018</t>
+  </si>
+  <si>
+    <t>The room was fine, I went to open the door under the sink and cabnet door to the right side of the sink. I went to cloase the sink door. My finger was caught in the door trying to close it. The cabnets doors should close is the same direction, that would stop a person from jamming the door on a finger. Since they close in opsite directions, you can easily pinch your finger.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r525470219-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>525470219</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay.  It was a smoking room but it was  very clean and fresh.  That floor and the room smelled very fresh and clean.  The staff was very nice and helpful when it came to getting checked in and looking for somewhere to get food.                                                                                                                                                       MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay.  It was a smoking room but it was  very clean and fresh.  That floor and the room smelled very fresh and clean.  The staff was very nice and helpful when it came to getting checked in and looking for somewhere to get food.                                                                                                                                                       More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r516109719-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>516109719</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Bad n Dirty hotel</t>
+  </si>
+  <si>
+    <t>This is not a good hotel. I got my room around 05pm. N check out was 11am. Every extend  Hr Usd 25. So many dogs n not clean . Watch out for bug's Do take your own towel if you are staying here. Toilers are not clean take plunger also. Breakfast forget it . No hot meals.oats n cup cake. By 0920am they will clear it. Staff are Oky . Room will be cleaned every 48 hrs. Or will be charged. No cooking facilities. No plates or pots. Not even water bottle. They may be pet friendly but not kids friendly. Limited staff. Can not recommend to any . Hotel should be reviewed by Inspector . I stayed here for two days . There are many good hotels in surrounding . I hope these reviews will be taken in to consider and try to make better hotel. Location is very good. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>This is not a good hotel. I got my room around 05pm. N check out was 11am. Every extend  Hr Usd 25. So many dogs n not clean . Watch out for bug's Do take your own towel if you are staying here. Toilers are not clean take plunger also. Breakfast forget it . No hot meals.oats n cup cake. By 0920am they will clear it. Staff are Oky . Room will be cleaned every 48 hrs. Or will be charged. No cooking facilities. No plates or pots. Not even water bottle. They may be pet friendly but not kids friendly. Limited staff. Can not recommend to any . Hotel should be reviewed by Inspector . I stayed here for two days . There are many good hotels in surrounding . I hope these reviews will be taken in to consider and try to make better hotel. Location is very good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r509735237-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>509735237</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Too expensive for this result</t>
+  </si>
+  <si>
+    <t>I would like to share my disappointment.First of all, I felt the rooms and the corridors are dirty. The smell is really bad everyday (we stood 2 nights).I think the room rate is a way too expensive for the service.Beside, the breakfast is really light with no tables to enjoy it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>I would like to share my disappointment.First of all, I felt the rooms and the corridors are dirty. The smell is really bad everyday (we stood 2 nights).I think the room rate is a way too expensive for the service.Beside, the breakfast is really light with no tables to enjoy it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r506815027-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>506815027</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Incompetent Staff</t>
+  </si>
+  <si>
+    <t>Low scores pertaining to quality service result from the incompetence of the staff, particularly during checkout where staff neglects to apply coupon code. Very inconvenienced to call back and have to correct the billing. This has happened multiple times at multiple locations. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Low scores pertaining to quality service result from the incompetence of the staff, particularly during checkout where staff neglects to apply coupon code. Very inconvenienced to call back and have to correct the billing. This has happened multiple times at multiple locations. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r506662380-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>506662380</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>I've never felt more disrespected, lied to or devalued.</t>
+  </si>
+  <si>
+    <t>I travel often on business. Typically, I stay for 3-10 days at a time. This was my first stay at this location. I promise it will be my last.  They told me one rate over the phone, after I booked they changed the rate. They didn't book me for the right amount of dates. Then when I went to resolve it, they told me I couldn't extended cause they were over booked. That explains why they didn't book me for my entire stay initially. My room was filthy. There was blood stains on my bed sheets but they didn't have another room to put me in. So I had to go down myself and exchange my sheets. No room service was provided. There were no kitchen utensils for me to use. Guests were smoking cigarettes and marijuana all throughout the hotel.   It was just very bad. My time, money, and value was clearly not taken into account. Even still, I have reached out to corporate office and no one has returned my call. I was supposed to be contacted with in 48 hrs. It's been 5 days.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>I travel often on business. Typically, I stay for 3-10 days at a time. This was my first stay at this location. I promise it will be my last.  They told me one rate over the phone, after I booked they changed the rate. They didn't book me for the right amount of dates. Then when I went to resolve it, they told me I couldn't extended cause they were over booked. That explains why they didn't book me for my entire stay initially. My room was filthy. There was blood stains on my bed sheets but they didn't have another room to put me in. So I had to go down myself and exchange my sheets. No room service was provided. There were no kitchen utensils for me to use. Guests were smoking cigarettes and marijuana all throughout the hotel.   It was just very bad. My time, money, and value was clearly not taken into account. Even still, I have reached out to corporate office and no one has returned my call. I was supposed to be contacted with in 48 hrs. It's been 5 days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r505500774-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>505500774</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Very disappointing stay</t>
+  </si>
+  <si>
+    <t>The outside of building looks good. Then you walk inside to the lobby and a horrible smell of dirty musty old carpeting. The coffee area is dirty and not stocked. The receptionist was lack luster. Hard to hear her speaking, I am 29 so it wasn't my hearing! The kitchen didn't have any plates, utensils, no pot and pans. No toster. The refrigerator didn't work. The TV went out. There was no one to fix anything. I was told I had to wait until "the guy" came in the next day!  The ONLY good thing about this place was how it looked on the outside and that it was in Torrance. I will not recommend this hotel until they clean it up! Including getting better staff! They don't seem to care about the guests! MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>The outside of building looks good. Then you walk inside to the lobby and a horrible smell of dirty musty old carpeting. The coffee area is dirty and not stocked. The receptionist was lack luster. Hard to hear her speaking, I am 29 so it wasn't my hearing! The kitchen didn't have any plates, utensils, no pot and pans. No toster. The refrigerator didn't work. The TV went out. There was no one to fix anything. I was told I had to wait until "the guy" came in the next day!  The ONLY good thing about this place was how it looked on the outside and that it was in Torrance. I will not recommend this hotel until they clean it up! Including getting better staff! They don't seem to care about the guests! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r500241781-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>500241781</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Get rid of the manager</t>
+  </si>
+  <si>
+    <t>Manager should be fired! Horrible customer service from her. Replacing her with any of the other workers here would be an improvement! Everyone else who works here is accommodating and very pleasant!!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Manager should be fired! Horrible customer service from her. Replacing her with any of the other workers here would be an improvement! Everyone else who works here is accommodating and very pleasant!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r500125366-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>500125366</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Needs improvement</t>
+  </si>
+  <si>
+    <t>1.  Internet is slow.  You have to pay 3.99 to have the normal speed, si to speak 2.  Staff not so welcoming.  Imagine telling us to go get our drinking water from 7-11 without letting us know that they have a vending machine 3.  They are conserving water so don't expect the normal water volume in your bathroom...barely there!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>1.  Internet is slow.  You have to pay 3.99 to have the normal speed, si to speak 2.  Staff not so welcoming.  Imagine telling us to go get our drinking water from 7-11 without letting us know that they have a vending machine 3.  They are conserving water so don't expect the normal water volume in your bathroom...barely there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r499825199-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>499825199</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Very clean hotel</t>
+  </si>
+  <si>
+    <t>staff is great hotel is clean and shower is hot  I stayed here for 4 weeks and am very pleased. uber downed to the beach for $5 every time. This was the best experience I have had at an extended stay hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded July 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2017</t>
+  </si>
+  <si>
+    <t>staff is great hotel is clean and shower is hot  I stayed here for 4 weeks and am very pleased. uber downed to the beach for $5 every time. This was the best experience I have had at an extended stay hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r498406152-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>498406152</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>There for work</t>
+  </si>
+  <si>
+    <t>Perfect location. Great leadership by Holly the general manager. Her team was very professional and friendly. Will be back to stay whenever work tales me there. Great location for food and not too far from the beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Perfect location. Great leadership by Holly the general manager. Her team was very professional and friendly. Will be back to stay whenever work tales me there. Great location for food and not too far from the beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r494824876-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>494824876</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Served its purpose</t>
+  </si>
+  <si>
+    <t>The grounds and room was clean, I was there 10 weeks and most staff were pleasant. Very good house keeping staff. The area I was in was quite noisy. Good choice of eateries within walking distance. Would be nice to have a place to print boarding passes, even with a small charge. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>The grounds and room was clean, I was there 10 weeks and most staff were pleasant. Very good house keeping staff. The area I was in was quite noisy. Good choice of eateries within walking distance. Would be nice to have a place to print boarding passes, even with a small charge. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r493434231-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>493434231</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Poor Experience</t>
+  </si>
+  <si>
+    <t>Extremely Poor/Terrible. Won't stay ever. Dissatisfied with customer service, room odor and hotel odor in general. Poor "breakfast". Hotel outside looks okay, inside looks old and not an appearance of clean. Connectors and some lights did not work. Not hot water on the second day. My room was not cleaned.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Extremely Poor/Terrible. Won't stay ever. Dissatisfied with customer service, room odor and hotel odor in general. Poor "breakfast". Hotel outside looks okay, inside looks old and not an appearance of clean. Connectors and some lights did not work. Not hot water on the second day. My room was not cleaned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r461596754-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>461596754</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Rude, rude, rude!</t>
+  </si>
+  <si>
+    <t>I agree with the other reviews. Most of the people who work there act like they are doing you a favor to help you. There is never anyone at the front desk. They are in the back room and you have to call out to get someone to help you. Most of the cigarette smoke you are smelling is coming from the employees smoking outside the hotel by the front door. The front planter is full of cigarette butts because they are too lazy to walk a few steps to the ashtray which is overflowing with butts. A smile and being friendly goes a long way. There is no ice machine or really any amenities. Ask for a blow drier at the front desk because when they run out your out of luck. A dog friendly hotel that does not supply poop bags, so the lawn is covered with poop. I was practically assaulted by the night crew smoking outside the front door and the mouthing off didn't stop there, they continued their inappropriate banter as I went down the hall back to my room at 11:00 pm. I have to commend the Latina girl at the from desk who was very sweet and apologetic for their bad behavior the following morning. People should appreciate the fact they have jobs. I would never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>I agree with the other reviews. Most of the people who work there act like they are doing you a favor to help you. There is never anyone at the front desk. They are in the back room and you have to call out to get someone to help you. Most of the cigarette smoke you are smelling is coming from the employees smoking outside the hotel by the front door. The front planter is full of cigarette butts because they are too lazy to walk a few steps to the ashtray which is overflowing with butts. A smile and being friendly goes a long way. There is no ice machine or really any amenities. Ask for a blow drier at the front desk because when they run out your out of luck. A dog friendly hotel that does not supply poop bags, so the lawn is covered with poop. I was practically assaulted by the night crew smoking outside the front door and the mouthing off didn't stop there, they continued their inappropriate banter as I went down the hall back to my room at 11:00 pm. I have to commend the Latina girl at the from desk who was very sweet and apologetic for their bad behavior the following morning. People should appreciate the fact they have jobs. I would never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r458781561-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>458781561</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Not Impressed</t>
+  </si>
+  <si>
+    <t>When checking in, Front Desk Clerk was not very personal nor friendly. She acted as if I was bothering her. It took a few minutes for her to check me in and said aloud that my credit card was declined twice, which was not. She asked me my phone number out load instead of having me writing it down as there were other guest standing around. She also told me my room number aloud, which I was not comfortable with knowing other guest could here this. She did not explain about the amenities nor about needing dishes, silverware etc. Parking was not convenient at all. When I got off the elevator there was a horrible smell down the hallway. When I got to my room there was no place to put my luggage as the wall rack was broken from the wall. The decor looked very worn and chairs were stained as well as the blanket. I went into the bathroom to find hair in the tub as well as the rug. A/C unit did not work properly. The Bed was very uncomfortable and pillow cases were wrinkled as if they were used. I went to the front desk to get cups, silverware and bowls.  I stood there for awhile until I heard a voice talk over rap music that was playing with filthy lyrics. I looked at the direction the voice was coming from to see the Front desk...When checking in, Front Desk Clerk was not very personal nor friendly. She acted as if I was bothering her. It took a few minutes for her to check me in and said aloud that my credit card was declined twice, which was not. She asked me my phone number out load instead of having me writing it down as there were other guest standing around. She also told me my room number aloud, which I was not comfortable with knowing other guest could here this. She did not explain about the amenities nor about needing dishes, silverware etc. Parking was not convenient at all. When I got off the elevator there was a horrible smell down the hallway. When I got to my room there was no place to put my luggage as the wall rack was broken from the wall. The decor looked very worn and chairs were stained as well as the blanket. I went into the bathroom to find hair in the tub as well as the rug. A/C unit did not work properly. The Bed was very uncomfortable and pillow cases were wrinkled as if they were used. I went to the front desk to get cups, silverware and bowls.  I stood there for awhile until I heard a voice talk over rap music that was playing with filthy lyrics. I looked at the direction the voice was coming from to see the Front desk clerk sitting in a dark corner on her cell phone. I asked for the cups and bowls which took awhile. I also mentioned to her about the so called luggage rack was broken, which she said nothing. I wanted to change rooms but she said nothing was available. I did not believe that. She came back with the supplies and I had to ask for another plastic cup because the rim was broken, cracked and sharp. She gave me an attitude which was the end of feeling welcomed. I do not recommend this hotel as it is run down and over priced. I felt like I needed another shower even after I left. DisgustingMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded February 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2017</t>
+  </si>
+  <si>
+    <t>When checking in, Front Desk Clerk was not very personal nor friendly. She acted as if I was bothering her. It took a few minutes for her to check me in and said aloud that my credit card was declined twice, which was not. She asked me my phone number out load instead of having me writing it down as there were other guest standing around. She also told me my room number aloud, which I was not comfortable with knowing other guest could here this. She did not explain about the amenities nor about needing dishes, silverware etc. Parking was not convenient at all. When I got off the elevator there was a horrible smell down the hallway. When I got to my room there was no place to put my luggage as the wall rack was broken from the wall. The decor looked very worn and chairs were stained as well as the blanket. I went into the bathroom to find hair in the tub as well as the rug. A/C unit did not work properly. The Bed was very uncomfortable and pillow cases were wrinkled as if they were used. I went to the front desk to get cups, silverware and bowls.  I stood there for awhile until I heard a voice talk over rap music that was playing with filthy lyrics. I looked at the direction the voice was coming from to see the Front desk...When checking in, Front Desk Clerk was not very personal nor friendly. She acted as if I was bothering her. It took a few minutes for her to check me in and said aloud that my credit card was declined twice, which was not. She asked me my phone number out load instead of having me writing it down as there were other guest standing around. She also told me my room number aloud, which I was not comfortable with knowing other guest could here this. She did not explain about the amenities nor about needing dishes, silverware etc. Parking was not convenient at all. When I got off the elevator there was a horrible smell down the hallway. When I got to my room there was no place to put my luggage as the wall rack was broken from the wall. The decor looked very worn and chairs were stained as well as the blanket. I went into the bathroom to find hair in the tub as well as the rug. A/C unit did not work properly. The Bed was very uncomfortable and pillow cases were wrinkled as if they were used. I went to the front desk to get cups, silverware and bowls.  I stood there for awhile until I heard a voice talk over rap music that was playing with filthy lyrics. I looked at the direction the voice was coming from to see the Front desk clerk sitting in a dark corner on her cell phone. I asked for the cups and bowls which took awhile. I also mentioned to her about the so called luggage rack was broken, which she said nothing. I wanted to change rooms but she said nothing was available. I did not believe that. She came back with the supplies and I had to ask for another plastic cup because the rim was broken, cracked and sharp. She gave me an attitude which was the end of feeling welcomed. I do not recommend this hotel as it is run down and over priced. I felt like I needed another shower even after I left. DisgustingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r450840676-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>450840676</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>Disappointing... as pointed out by other reviews</t>
+  </si>
+  <si>
+    <t>If first impression is what counts, mine is definitely not a good one.  In addition to the cigarette smell in my no-smoking room (BTW, smoke smell seems to be a recurrent issue in this hotel), I found out the kitchen cabinet's door to be fallen over the sink as we entered the room.After that, Front Desk moved us to a new room and the remaining of our 10-day stay had no further thrills.* Pros (if any): location - within walking distance to shopping malls (Del Amo Fashion Center, on of USA's largest) and close to a 7 Eleven and gas station.* Cons:  room smell and maintenance, housekeeping policy (1 service per week of stay included)In my next visit to Torrance area will consider new hotel options.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded January 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2017</t>
+  </si>
+  <si>
+    <t>If first impression is what counts, mine is definitely not a good one.  In addition to the cigarette smell in my no-smoking room (BTW, smoke smell seems to be a recurrent issue in this hotel), I found out the kitchen cabinet's door to be fallen over the sink as we entered the room.After that, Front Desk moved us to a new room and the remaining of our 10-day stay had no further thrills.* Pros (if any): location - within walking distance to shopping malls (Del Amo Fashion Center, on of USA's largest) and close to a 7 Eleven and gas station.* Cons:  room smell and maintenance, housekeeping policy (1 service per week of stay included)In my next visit to Torrance area will consider new hotel options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r433861418-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>433861418</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Good but could be better</t>
+  </si>
+  <si>
+    <t>Pros:  Spacious rooms with full kitchen (you have to request for the kitchen amenities from the front desk).  Spacious free parking.  Walking distance to Del Amo Fashion Center.  Laundry area (prepare your quarters).  Near LAX.  Marissa at the front desk was very helpful.Cons:  They only clean the room once a week so it could get a bit messy.  The AC in our room (Room 106) was not working properly, and despite repeated requests with the front desk, this was not immediately fixed.  There is no bellhop service, so, prepare to bring your own luggage. The hotel is near the fire station (could get noisy if the fire trucks are passing by)Neutral:  Free breakfast consists of coffee, tea, muffins and granola barsTip:  Inform the hotel for late check-ins because the front desk personnel is only available up to 10.30 pm.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Pros:  Spacious rooms with full kitchen (you have to request for the kitchen amenities from the front desk).  Spacious free parking.  Walking distance to Del Amo Fashion Center.  Laundry area (prepare your quarters).  Near LAX.  Marissa at the front desk was very helpful.Cons:  They only clean the room once a week so it could get a bit messy.  The AC in our room (Room 106) was not working properly, and despite repeated requests with the front desk, this was not immediately fixed.  There is no bellhop service, so, prepare to bring your own luggage. The hotel is near the fire station (could get noisy if the fire trucks are passing by)Neutral:  Free breakfast consists of coffee, tea, muffins and granola barsTip:  Inform the hotel for late check-ins because the front desk personnel is only available up to 10.30 pm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r432022647-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>432022647</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Made a great 2nd home for a week</t>
+  </si>
+  <si>
+    <t>My house was being renovated and just over a week so instead of being inconvenienced I stayed here. I'm glad I did. It was a nice home away from home. Great staff and clean rooms. It definitely worked for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2016</t>
+  </si>
+  <si>
+    <t>My house was being renovated and just over a week so instead of being inconvenienced I stayed here. I'm glad I did. It was a nice home away from home. Great staff and clean rooms. It definitely worked for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r414338939-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>414338939</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>Quality of service &amp; room condition is very low</t>
+  </si>
+  <si>
+    <t>No Breakfast, No daily room service instead it is mentioned online. Room AC was not working properly. Carpet is very old. No necessary utensils provided. Only positive is its location however Doesn't worth of money you spend.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded September 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2016</t>
+  </si>
+  <si>
+    <t>No Breakfast, No daily room service instead it is mentioned online. Room AC was not working properly. Carpet is very old. No necessary utensils provided. Only positive is its location however Doesn't worth of money you spend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r402511829-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>402511829</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Extended Stay for relocation</t>
+  </si>
+  <si>
+    <t>The price was fine compared to other hotels for extended periods of time. The customer service with one or two members of the staff members was what made the stay unpleasant at times. Mary and Tammy were exceptional staff members during my stay. They were helpful when needing assistance. Friendly and Professional during my stay. However, there were two other members that were on the afternoon shift that need a little more work on customer service and professionalism. Towels were poor quality. Some staff members were protective of giving out extra towels and soap and other toiletries during my stay. Clean rooms even with service once a week. Overall comfortable for my extended stay during my relocation to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded August 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2016</t>
+  </si>
+  <si>
+    <t>The price was fine compared to other hotels for extended periods of time. The customer service with one or two members of the staff members was what made the stay unpleasant at times. Mary and Tammy were exceptional staff members during my stay. They were helpful when needing assistance. Friendly and Professional during my stay. However, there were two other members that were on the afternoon shift that need a little more work on customer service and professionalism. Towels were poor quality. Some staff members were protective of giving out extra towels and soap and other toiletries during my stay. Clean rooms even with service once a week. Overall comfortable for my extended stay during my relocation to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r393185766-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>393185766</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>A couple Business overnights</t>
+  </si>
+  <si>
+    <t>My impression would be similar to a few other reviews-this hotel offers a bare minimum--but then again, for the price, there were no other options in the area.Positives--price, easy check in and out. Quiet--3rd floor. AC was effective--and quiet, so I slept very well. Negative for me was no exercise room.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded July 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2016</t>
+  </si>
+  <si>
+    <t>My impression would be similar to a few other reviews-this hotel offers a bare minimum--but then again, for the price, there were no other options in the area.Positives--price, easy check in and out. Quiet--3rd floor. AC was effective--and quiet, so I slept very well. Negative for me was no exercise room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r388872046-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>388872046</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Clean and nice despite the bad guests they get</t>
+  </si>
+  <si>
+    <t>Unfortunately good guests and hotel employees can't know a guest is bad until they've been in and ruined their day or room for all the other well-mannered people. Place isn't bad. Breakfast is basic. Oatmeal, oranges, granola bars, muffins, coffee. All amenities are available but for sanitary and I'm sure for loss prevention reasons, they don't have their rooms stocked with said amenities because of the customers that abuse the system. But all you have to do is ask for what you need and not assume it isn't there. They have shampoo, conditioner, pots, pans, dishes, etc. Now to the really great stuff- service. Tammy at the front desk if beyond amazing. She is so friendly and genuine. Her empathy for customers and knack for customer service shows. There isn't a part in me that she would ever be able to piss off. When I needed something she was on it. Her manager Jessica is also nice be it under stress but I guess who wouldn't be working in a place where you have to deal with problems that involve guests and cops. So my advice is to have patience as a guest because we don't know what they're going through either. I was pissed at first and then realized the world doesn't revolve around me even though Tammy makes me feel like it does. To all the bad guests out there- stop making people that service you miserable, stop...Unfortunately good guests and hotel employees can't know a guest is bad until they've been in and ruined their day or room for all the other well-mannered people. Place isn't bad. Breakfast is basic. Oatmeal, oranges, granola bars, muffins, coffee. All amenities are available but for sanitary and I'm sure for loss prevention reasons, they don't have their rooms stocked with said amenities because of the customers that abuse the system. But all you have to do is ask for what you need and not assume it isn't there. They have shampoo, conditioner, pots, pans, dishes, etc. Now to the really great stuff- service. Tammy at the front desk if beyond amazing. She is so friendly and genuine. Her empathy for customers and knack for customer service shows. There isn't a part in me that she would ever be able to piss off. When I needed something she was on it. Her manager Jessica is also nice be it under stress but I guess who wouldn't be working in a place where you have to deal with problems that involve guests and cops. So my advice is to have patience as a guest because we don't know what they're going through either. I was pissed at first and then realized the world doesn't revolve around me even though Tammy makes me feel like it does. To all the bad guests out there- stop making people that service you miserable, stop making costs increase for others, stop messing things up for everyone else!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded July 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2016</t>
+  </si>
+  <si>
+    <t>Unfortunately good guests and hotel employees can't know a guest is bad until they've been in and ruined their day or room for all the other well-mannered people. Place isn't bad. Breakfast is basic. Oatmeal, oranges, granola bars, muffins, coffee. All amenities are available but for sanitary and I'm sure for loss prevention reasons, they don't have their rooms stocked with said amenities because of the customers that abuse the system. But all you have to do is ask for what you need and not assume it isn't there. They have shampoo, conditioner, pots, pans, dishes, etc. Now to the really great stuff- service. Tammy at the front desk if beyond amazing. She is so friendly and genuine. Her empathy for customers and knack for customer service shows. There isn't a part in me that she would ever be able to piss off. When I needed something she was on it. Her manager Jessica is also nice be it under stress but I guess who wouldn't be working in a place where you have to deal with problems that involve guests and cops. So my advice is to have patience as a guest because we don't know what they're going through either. I was pissed at first and then realized the world doesn't revolve around me even though Tammy makes me feel like it does. To all the bad guests out there- stop making people that service you miserable, stop...Unfortunately good guests and hotel employees can't know a guest is bad until they've been in and ruined their day or room for all the other well-mannered people. Place isn't bad. Breakfast is basic. Oatmeal, oranges, granola bars, muffins, coffee. All amenities are available but for sanitary and I'm sure for loss prevention reasons, they don't have their rooms stocked with said amenities because of the customers that abuse the system. But all you have to do is ask for what you need and not assume it isn't there. They have shampoo, conditioner, pots, pans, dishes, etc. Now to the really great stuff- service. Tammy at the front desk if beyond amazing. She is so friendly and genuine. Her empathy for customers and knack for customer service shows. There isn't a part in me that she would ever be able to piss off. When I needed something she was on it. Her manager Jessica is also nice be it under stress but I guess who wouldn't be working in a place where you have to deal with problems that involve guests and cops. So my advice is to have patience as a guest because we don't know what they're going through either. I was pissed at first and then realized the world doesn't revolve around me even though Tammy makes me feel like it does. To all the bad guests out there- stop making people that service you miserable, stop making costs increase for others, stop messing things up for everyone else!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r376442061-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>376442061</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>This is a Terrific Hotel</t>
+  </si>
+  <si>
+    <t>The staff and reception are professional, friendly and helpful.  I initially booked the hotel thinking I would stay one night, but ended up booking a total of 6 nights.  The location is perfect and ideal next to a giant shopping mall and other locations.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2016</t>
+  </si>
+  <si>
+    <t>The staff and reception are professional, friendly and helpful.  I initially booked the hotel thinking I would stay one night, but ended up booking a total of 6 nights.  The location is perfect and ideal next to a giant shopping mall and other locations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r360478918-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>360478918</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Never again!</t>
+  </si>
+  <si>
+    <t>I stayed over Columbus Day weekend and chose this hotel for the kitchen so I can cook one or two meals. More on that later. When I arrived, I was told I would have a room on the smoking floor, though I requested a non-smoking room. I asked if this was just for the night &amp; was told it was for my entire stay. A little miffed, but not upset as I've stayed in smoking rooms before with no issues. Can't say that ever again. I could smell the smoke before I got off the elevator. OMGosh it was strong and only got worse when I entered the room. The smell was everywhere - in the room, bathroom, furniture, sheets, EVERYTHING! I went back to reception and begged for another room. They said they were fully booked, but offered me a candle (which is illegal I believe) to dull the scent. It didn't work. Now about the fully-equipped kitchen. How surprised was I when I looked in the cupboard to find it bare. No plates, utensils, pots/pans, dish towels. Nothing. Very disappointed. If in the area and looking for a place to stay for the night - drive pass this hotel and keep looking. Not worth a penny of your money. And I didn't mention the 2 a.m. wake up call I got from police banging and yelling for someone staying in the room across the hall from me.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Holly B, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded April 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2016</t>
+  </si>
+  <si>
+    <t>I stayed over Columbus Day weekend and chose this hotel for the kitchen so I can cook one or two meals. More on that later. When I arrived, I was told I would have a room on the smoking floor, though I requested a non-smoking room. I asked if this was just for the night &amp; was told it was for my entire stay. A little miffed, but not upset as I've stayed in smoking rooms before with no issues. Can't say that ever again. I could smell the smoke before I got off the elevator. OMGosh it was strong and only got worse when I entered the room. The smell was everywhere - in the room, bathroom, furniture, sheets, EVERYTHING! I went back to reception and begged for another room. They said they were fully booked, but offered me a candle (which is illegal I believe) to dull the scent. It didn't work. Now about the fully-equipped kitchen. How surprised was I when I looked in the cupboard to find it bare. No plates, utensils, pots/pans, dish towels. Nothing. Very disappointed. If in the area and looking for a place to stay for the night - drive pass this hotel and keep looking. Not worth a penny of your money. And I didn't mention the 2 a.m. wake up call I got from police banging and yelling for someone staying in the room across the hall from me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r351039348-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>351039348</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t>Good for Long Stays !</t>
+  </si>
+  <si>
+    <t>Stayed here for 23 nights, Room was cozy and nice. The kitchenette was well equipped with toasters, coffee maker, microwave, fridge and basic utensils and crockery. Location was quite and peaceful and staff was helpful and courteous. Ample parking space around the property and If you are not renting a car and want to roam around then a good option is Redondo beach which is very close-by. Breakfast was very basic grab and go mainly coffee, muffins, fruits and protein bars. Call out for Tammy who helped me sort out a billing issue very promptly and efficiently.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r340074299-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>340074299</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Okay for a night</t>
+  </si>
+  <si>
+    <t>Stayed overnight at this property for some company related work. The hotel is about 12 miles away from LAX airport. The property offers plenty of free parking. The check-in process was easy. Upon getting into my room, I figured out that the air-conditioning wasn't working and so had to call the front desk. Johnny was kind enough to assign me another room. The new room was alright. There was nothing wow about it and for a night...meh! They do offer free breakfast, which is some oatmeal, coffee, cereal bars and fruits. They did have free wifi, one could pay more for faster wifi. The checkout process was also easy.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r297954175-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>297954175</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>You get what you pay for. It's far from luxury, but it gets the job done if you are looking for a simple, decent place to stay with or without your pet. I would give the accommodation overall 2 stars (thin scratchy towels, gum on the bathroom floor, no hair conditioner, outdated &amp; thin bed sheets and blankets) but the management (especially Holly) 5 stars.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r282043414-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>282043414</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Found this on Priceline Express for one night.  We were going to Catalina the next day so only about 30 minutes from Long Beach Catalina Express port.Exterior and lobby were fine, except the lobby was rather small.  Room was clean except the sink had some black gunk dried in the bottom, which I scrubbed to get out.  Had not stayed in "extended" hotel that I can remember.  Bit hard to find after dark because the sign was not lighted.  Quick check-in.  The free internet was fast enough for us but several faster speeds were available at additional cost.  Bed was comfortable.  Unusual that no glasses or coffee maker were available unless requested.  Either my wife or I had to go back to the front desk to get glasses and dishes, which were quite heavy.  We had leftovers from previous night so plates and silverware were welcome.  The breakfast was grab-n-go, meaning fruit, coffee and granola bars displayed near the door.  Adequate but not very filling.MoreShow less</t>
+  </si>
+  <si>
+    <t>Found this on Priceline Express for one night.  We were going to Catalina the next day so only about 30 minutes from Long Beach Catalina Express port.Exterior and lobby were fine, except the lobby was rather small.  Room was clean except the sink had some black gunk dried in the bottom, which I scrubbed to get out.  Had not stayed in "extended" hotel that I can remember.  Bit hard to find after dark because the sign was not lighted.  Quick check-in.  The free internet was fast enough for us but several faster speeds were available at additional cost.  Bed was comfortable.  Unusual that no glasses or coffee maker were available unless requested.  Either my wife or I had to go back to the front desk to get glasses and dishes, which were quite heavy.  We had leftovers from previous night so plates and silverware were welcome.  The breakfast was grab-n-go, meaning fruit, coffee and granola bars displayed near the door.  Adequate but not very filling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r255507495-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>255507495</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>BEDBUGS EVERYWHERE!</t>
+  </si>
+  <si>
+    <t>I stayed for two weeks in this disgusting hotel. I got bitten by bedbugs, yet when I approached the manager Ann (asian lady) she didn't want to believe it. She shoved me some coins for the laundry and that was it. She had an awful (bad word deleted ;)) attitude, and refused to refund the nights that I got bitten. I bumped into a gentleman in the elevator,  he overheard my conversation with the manager and told me that he got bitten too!!! The neighbours were extremely noisy, complained about that but yet no actions to at least try to better our stay. Awful staff, awfull experience. Extended stay torrance (del amo circle) is a NO GO!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I stayed for two weeks in this disgusting hotel. I got bitten by bedbugs, yet when I approached the manager Ann (asian lady) she didn't want to believe it. She shoved me some coins for the laundry and that was it. She had an awful (bad word deleted ;)) attitude, and refused to refund the nights that I got bitten. I bumped into a gentleman in the elevator,  he overheard my conversation with the manager and told me that he got bitten too!!! The neighbours were extremely noisy, complained about that but yet no actions to at least try to better our stay. Awful staff, awfull experience. Extended stay torrance (del amo circle) is a NO GO!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r251438493-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>251438493</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Disgusting!</t>
+  </si>
+  <si>
+    <t>This place should be immediately closed. Dirty and dusty rooms, stained carpet, smells like mold. To make things worse, I'm covered in bug bites. Not sure if they're flea or bed bugs. Worst hotel I've ever stayed at.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r244287441-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>244287441</t>
+  </si>
+  <si>
+    <t>12/13/2014</t>
+  </si>
+  <si>
+    <t>great staff, good value</t>
+  </si>
+  <si>
+    <t>Staff were all very friendly and helpful. The hotel room is clean, quiet, and comfortable. I have stayed here on 3 different business trips and will continue to do so. This hotel is a great value for the price.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r218181831-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>218181831</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Would not stay in again.</t>
+  </si>
+  <si>
+    <t>The people working there were OK. But the room, the condition of the room was not good at all. To many issues that had to be addressed while there. The breakfast was not good at all for the price. Left early to go to another Hotel. Had to call booking company to get back some of my money I had paid in advance.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r216934181-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>216934181</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Clean, comfortable room in excellent location</t>
+  </si>
+  <si>
+    <t>I've stayed at this ESA before as well as the one a mile away at Del Amo Circle.  They are comparable but since the latter was recently renovated, the prices were about $10 a night more for the same accommodations.  So I selected Torrance Blvd.
+The room was clean, nicely furnished, and had a kitchenette with 2 burner electric stove (no oven), full sized refrigerator, stainless steel sink (no disposer), and quite a few cabinets.  We stayed a week and made green smoothies every day and cooked in every night because we're very nutrition conscious and generally mistrust the processed, non-organic/GMO food served by most restaurants.  Kitchen utensils, cookware, and supplies can be custom ordered and are supplied by the front desk.  No blenders but they offer a toaster.  If you're a gourmet cook, bring some of your own stuff.
+We had an issue with the refrigerator going out early in our stay and we lost most of our organic produce, dairy, and some poultry before we discovered that it wasn't keeping the food cold.  I was slow to realize it because the light illuminated when the fridge door was opened and the freezer worked fine.  Once I informed the front desk, the refrigerator was promptly replaced with another.  Had some problem getting reimbursed for spoiled food, but finally got a credit from the on duty manager that was somewhat less than my actual loss.
+However, when I filled out...I've stayed at this ESA before as well as the one a mile away at Del Amo Circle.  They are comparable but since the latter was recently renovated, the prices were about $10 a night more for the same accommodations.  So I selected Torrance Blvd.The room was clean, nicely furnished, and had a kitchenette with 2 burner electric stove (no oven), full sized refrigerator, stainless steel sink (no disposer), and quite a few cabinets.  We stayed a week and made green smoothies every day and cooked in every night because we're very nutrition conscious and generally mistrust the processed, non-organic/GMO food served by most restaurants.  Kitchen utensils, cookware, and supplies can be custom ordered and are supplied by the front desk.  No blenders but they offer a toaster.  If you're a gourmet cook, bring some of your own stuff.We had an issue with the refrigerator going out early in our stay and we lost most of our organic produce, dairy, and some poultry before we discovered that it wasn't keeping the food cold.  I was slow to realize it because the light illuminated when the fridge door was opened and the freezer worked fine.  Once I informed the front desk, the refrigerator was promptly replaced with another.  Had some problem getting reimbursed for spoiled food, but finally got a credit from the on duty manager that was somewhat less than my actual loss.However, when I filled out an Extended Stay America online survey and detailed the problem, the General Manager very promptly (like 10 minutes later) wrote me a personal email with additional reimbursement and apologized for the inconvenience of throwing out spoiled food and having to unload and reload refrigerators.  I consider this excellent customer service and appreciated the unsolicited credit he said would be put on my Amex account shortly.  Thanks Saul Perez.The hotel is about 2.5 miles from the ocean and Redondo Beach Pier.  It's across from the Del Amo Mall and about 1.5 miles from Trader Joe's and 3.5 miles from Costco.  All good if you're cooking in and want nutritious sources (Whole Foods Market is also nearby).  For those eating out there are a plethora of restaurants of all types nearby so the only problem would be choosing where to eat.You pretty much need a car if you're going to stay here for any length of time. There is convenient, adjacent parking, easy ingress and egress, but a lot of traffic on Torrance Blvd.  We could hear some traffic noise from our room, which was a couple down from the south end of the building fronting the street.  However, the noise was not an issue.Am returning to this same hotel just after the first of August for 2 more weeks for some more beach time and relaxation.  Obviously I wouldn't stay there again if I didn't feel I was getting good value for dollars spent.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed at this ESA before as well as the one a mile away at Del Amo Circle.  They are comparable but since the latter was recently renovated, the prices were about $10 a night more for the same accommodations.  So I selected Torrance Blvd.
+The room was clean, nicely furnished, and had a kitchenette with 2 burner electric stove (no oven), full sized refrigerator, stainless steel sink (no disposer), and quite a few cabinets.  We stayed a week and made green smoothies every day and cooked in every night because we're very nutrition conscious and generally mistrust the processed, non-organic/GMO food served by most restaurants.  Kitchen utensils, cookware, and supplies can be custom ordered and are supplied by the front desk.  No blenders but they offer a toaster.  If you're a gourmet cook, bring some of your own stuff.
+We had an issue with the refrigerator going out early in our stay and we lost most of our organic produce, dairy, and some poultry before we discovered that it wasn't keeping the food cold.  I was slow to realize it because the light illuminated when the fridge door was opened and the freezer worked fine.  Once I informed the front desk, the refrigerator was promptly replaced with another.  Had some problem getting reimbursed for spoiled food, but finally got a credit from the on duty manager that was somewhat less than my actual loss.
+However, when I filled out...I've stayed at this ESA before as well as the one a mile away at Del Amo Circle.  They are comparable but since the latter was recently renovated, the prices were about $10 a night more for the same accommodations.  So I selected Torrance Blvd.The room was clean, nicely furnished, and had a kitchenette with 2 burner electric stove (no oven), full sized refrigerator, stainless steel sink (no disposer), and quite a few cabinets.  We stayed a week and made green smoothies every day and cooked in every night because we're very nutrition conscious and generally mistrust the processed, non-organic/GMO food served by most restaurants.  Kitchen utensils, cookware, and supplies can be custom ordered and are supplied by the front desk.  No blenders but they offer a toaster.  If you're a gourmet cook, bring some of your own stuff.We had an issue with the refrigerator going out early in our stay and we lost most of our organic produce, dairy, and some poultry before we discovered that it wasn't keeping the food cold.  I was slow to realize it because the light illuminated when the fridge door was opened and the freezer worked fine.  Once I informed the front desk, the refrigerator was promptly replaced with another.  Had some problem getting reimbursed for spoiled food, but finally got a credit from the on duty manager that was somewhat less than my actual loss.However, when I filled out an Extended Stay America online survey and detailed the problem, the General Manager very promptly (like 10 minutes later) wrote me a personal email with additional reimbursement and apologized for the inconvenience of throwing out spoiled food and having to unload and reload refrigerators.  I consider this excellent customer service and appreciated the unsolicited credit he said would be put on my Amex account shortly.  Thanks Saul Perez.The hotel is about 2.5 miles from the ocean and Redondo Beach Pier.  It's across from the Del Amo Mall and about 1.5 miles from Trader Joe's and 3.5 miles from Costco.  All good if you're cooking in and want nutritious sources (Whole Foods Market is also nearby).  For those eating out there are a plethora of restaurants of all types nearby so the only problem would be choosing where to eat.You pretty much need a car if you're going to stay here for any length of time. There is convenient, adjacent parking, easy ingress and egress, but a lot of traffic on Torrance Blvd.  We could hear some traffic noise from our room, which was a couple down from the south end of the building fronting the street.  However, the noise was not an issue.Am returning to this same hotel just after the first of August for 2 more weeks for some more beach time and relaxation.  Obviously I wouldn't stay there again if I didn't feel I was getting good value for dollars spent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r216614537-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>216614537</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Ehhh...</t>
+  </si>
+  <si>
+    <t>I was looking for an inexpensive place to stay for one night that was in a safe area.  This fit the bill.  Room was clean, however, smelled of smoke and did indeed have an ashtray in the kitchen.  I was surprised, as I thought smoking wasn't allowed in hotels in California.  I was also surprised that there was no shampoo/lotions or amenities of any type in the rooms.  Being that we were there for just the one night, I hadn't brought any with us. The woman checking us in was a bit disjointed and all over the place.  Wasn't focused on our check-in at all.  If you're going to the Torrance / Redondo Beach area, this is in a good location.  Right across the street from the Del Amo Mall and Redondo Pier is only about a 10 minute drive.  It served our needs for this trip, however, I'd not stay here for any length of time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded July 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2014</t>
+  </si>
+  <si>
+    <t>I was looking for an inexpensive place to stay for one night that was in a safe area.  This fit the bill.  Room was clean, however, smelled of smoke and did indeed have an ashtray in the kitchen.  I was surprised, as I thought smoking wasn't allowed in hotels in California.  I was also surprised that there was no shampoo/lotions or amenities of any type in the rooms.  Being that we were there for just the one night, I hadn't brought any with us. The woman checking us in was a bit disjointed and all over the place.  Wasn't focused on our check-in at all.  If you're going to the Torrance / Redondo Beach area, this is in a good location.  Right across the street from the Del Amo Mall and Redondo Pier is only about a 10 minute drive.  It served our needs for this trip, however, I'd not stay here for any length of time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r212322703-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>212322703</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Scratchy!  Everything Scratchy</t>
+  </si>
+  <si>
+    <t>Booked this hotel with a package.  I always like to get some type of kitchen.  I did not book a smoking room but got one anyway.  1st night I could not sleep at all.  Everything is scratchy!  Sheets are really scratchy and all the paper products are scratchy!  Come to find out they are "Green" products.   After 2 nights in smoking I got pretty sick.  They did move me the third night, but I had to get upset at them, which I really don't do very often.  Don't stay here unless you have too.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r209985794-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>209985794</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>Smokey, pets, and below-average staff, but nice location</t>
+  </si>
+  <si>
+    <t>Nice location close to Del Amo Mall, but the hotel caters to smokers and pet owners, so the third floor smells like smoke, and many rooms smell like pets. You will often find pet urine in the hallways also. Some of the staff are friendly, but most aren't. Jose and the black woman at the front desk aren't very helpful. Beds are very hard, but that is typical of this chain. Pros: Kitchen area with fridge and microwave, nice parking lot, good location, free fast internet, and laundry room. Cons: No exercise room, rude front desk and maid staff, smoke, pets, thin walls, and could be cleaner. A hotel that bills itself as an extended stay hotel should really have either an exercise room or an arrangement with a local gym for guests to work out there for free.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice location close to Del Amo Mall, but the hotel caters to smokers and pet owners, so the third floor smells like smoke, and many rooms smell like pets. You will often find pet urine in the hallways also. Some of the staff are friendly, but most aren't. Jose and the black woman at the front desk aren't very helpful. Beds are very hard, but that is typical of this chain. Pros: Kitchen area with fridge and microwave, nice parking lot, good location, free fast internet, and laundry room. Cons: No exercise room, rude front desk and maid staff, smoke, pets, thin walls, and could be cleaner. A hotel that bills itself as an extended stay hotel should really have either an exercise room or an arrangement with a local gym for guests to work out there for free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r207434668-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>207434668</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room is very good and quite clean. Service of the hotel is very good.But a plug of bath of room No. 208 didn't work. I wanted to fill up hot water in the bath tab.I don't know why, but it smelled bad in front of our room. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r199668680-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>199668680</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>TERRIBLE</t>
+  </si>
+  <si>
+    <t>We got a dirty &amp; smelly room which looks like not being used for a while. Also, the ceiling fan was so dusty that we cannot turn on. We initially had a 3 night reservation but got out of it after the 2nd day.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r194346034-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>194346034</t>
+  </si>
+  <si>
+    <t>02/16/2014</t>
+  </si>
+  <si>
+    <t>Rip off, never again!</t>
+  </si>
+  <si>
+    <t>I'm not a picky person but if I am paying $88 for one night at a good franchise hotel company I would expect more. This hotel is run down, the hallway smells like weed in a non- smoking level, ac didn't work so got moved to another room, just to find out I'm n a handicap room with a bed that feels like ur sleeping on a box spring, heck that might even feel better than this one. If you need anything u call the front desk to be told to come meet them at the front desk and there's only bar soap in the hotel no shampoo or anything else. Closet doors missing, I have to say it is a run down extended stay I've ever been too I would never recommend this place, it's way over priced and too ghetto esp for the location really sad to know that there is a ghetto hotel in a location like this. Also I think there's some pretty woman activity going on here too lol MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm not a picky person but if I am paying $88 for one night at a good franchise hotel company I would expect more. This hotel is run down, the hallway smells like weed in a non- smoking level, ac didn't work so got moved to another room, just to find out I'm n a handicap room with a bed that feels like ur sleeping on a box spring, heck that might even feel better than this one. If you need anything u call the front desk to be told to come meet them at the front desk and there's only bar soap in the hotel no shampoo or anything else. Closet doors missing, I have to say it is a run down extended stay I've ever been too I would never recommend this place, it's way over priced and too ghetto esp for the location really sad to know that there is a ghetto hotel in a location like this. Also I think there's some pretty woman activity going on here too lol More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r194084180-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>194084180</t>
+  </si>
+  <si>
+    <t>02/14/2014</t>
+  </si>
+  <si>
+    <t>Nice Motel</t>
+  </si>
+  <si>
+    <t>The staff are really professional at this particular Extended Stay, and the room that I stayed in was pretty comfortable. I had a bad experience at an Extended Stay in Gardena, which prevented me from booking with them from that point on. However, I stayed with them for this particular trip, not out of choice,  but because I booked my stay through a third party website that didn't provide the details until after I paid. But this particular stay was pleasant and far better then my previous experience at an Extended Stay, and has renewed my faith in this particular hotel chain (see link).http://www.tripadvisor.com/ShowUserReviews-g32422-d579463-r135218916-Extended_Stay_America_Los_Angeles_South-Gardena_California.html#REVIEWS</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r181744318-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>181744318</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>A Tad Overpriced</t>
+  </si>
+  <si>
+    <t>A/C was persnickety at best and eventually had to just open the window.Somewhat underlit.Everything clean and new in appearance.  Complete kitchenette in the suite. Expect some weird smells in the hallways, since you can cook in your room.OK, but seemed somewhat overpriced.  Plenty of hot water and fluffy towels.Jessica at the front desk was very helpful when our Expedia reservation could not be found in their system.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r180269708-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>180269708</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>HOTEL HELL!!!</t>
+  </si>
+  <si>
+    <t>My room was infested with fleas!! It took management 2 days to get someone out to spray. When they did come out they attempted to open the door with the room key they received from management without notifying me!!! Isn't this illegal? Can anyone recommend a good attorney in the area? Also there was a prostitute "living" next door for over a year and a half. She entertained her guests between the hours of 11pm and 5:30am. I notified management and even HIS MANAGER and absolutely nothing was done!! She also had a dog which barked constantly when she escorted them down the stairs. I would NEVER recommend this hotel to anyone!!! Not unless you're into fleas and hookers!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>My room was infested with fleas!! It took management 2 days to get someone out to spray. When they did come out they attempted to open the door with the room key they received from management without notifying me!!! Isn't this illegal? Can anyone recommend a good attorney in the area? Also there was a prostitute "living" next door for over a year and a half. She entertained her guests between the hours of 11pm and 5:30am. I notified management and even HIS MANAGER and absolutely nothing was done!! She also had a dog which barked constantly when she escorted them down the stairs. I would NEVER recommend this hotel to anyone!!! Not unless you're into fleas and hookers!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r174497372-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>174497372</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>An anniversary retreat</t>
+  </si>
+  <si>
+    <t>While in the L.A. area for business and our 10th wedding anniversary, we decided to spend the night atExtended StayAmerica Los Angeles-Torrance. We were able to get a great price and the accommodations were very nice...recently renovated. From the time we arrived until the time we left, we felt like we were part of the family. I would highly recommend this hotel and look forward to staying here again. As mentioned, the hotel has recently been renovated and has up-to-date amenities. Our room came with a full kitchen, flat screen television, free Wi-Fi and a king sized bed. We had one minor issue, but Tammy the front desk manager personally came to our room and remedied the situation. Now that is customer service!!! All-in-all, a great time had by all.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded August 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2013</t>
+  </si>
+  <si>
+    <t>While in the L.A. area for business and our 10th wedding anniversary, we decided to spend the night atExtended StayAmerica Los Angeles-Torrance. We were able to get a great price and the accommodations were very nice...recently renovated. From the time we arrived until the time we left, we felt like we were part of the family. I would highly recommend this hotel and look forward to staying here again. As mentioned, the hotel has recently been renovated and has up-to-date amenities. Our room came with a full kitchen, flat screen television, free Wi-Fi and a king sized bed. We had one minor issue, but Tammy the front desk manager personally came to our room and remedied the situation. Now that is customer service!!! All-in-all, a great time had by all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r170316870-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>170316870</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>For a few bucks more a better bed</t>
+  </si>
+  <si>
+    <t>I've stayed with this hotel chain several times because most low-rate hotels are sleazy motels. My experience with the staff has been great. It's usually the guests that are questionable: loud, bringing dogs down to the complimentary breakfast station unleashed; damaging hotel property (I can tell by the condition of the room that a guest just didn't care). My BIGGEST complaint about Extended Stay? Worst mattresses I ever slept on. Homeless shelters probably have better mattresses.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded August 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2013</t>
+  </si>
+  <si>
+    <t>I've stayed with this hotel chain several times because most low-rate hotels are sleazy motels. My experience with the staff has been great. It's usually the guests that are questionable: loud, bringing dogs down to the complimentary breakfast station unleashed; damaging hotel property (I can tell by the condition of the room that a guest just didn't care). My BIGGEST complaint about Extended Stay? Worst mattresses I ever slept on. Homeless shelters probably have better mattresses.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r166513286-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>166513286</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>Not bad...</t>
+  </si>
+  <si>
+    <t>I stayed here last weekend, Place wasn't bad until the Air Conditioning unit didn't work properly we were in room 334 and even the toilet plugged on us? the Cleaners never came by to check on the room... I don't know what else to say other then it was alright...</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r166365946-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>166365946</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>Good price, new room</t>
+  </si>
+  <si>
+    <t>This hotel is in the middle of everything.  The room is new, clean, and equipped with everything you need.  Grab-n-go breakfast is ok but not so much variety; as long as it is complimentary, I'm ok with that.Bathroom was clean but towels was dirty.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r155771176-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>155771176</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>Second hand smoke</t>
+  </si>
+  <si>
+    <t>The room was somewhat clean. But I was scared to take off my shoes. Faint smell of smoke on towels and bedding. Do people jump up and down all night? Walls are extremely thin. The sheets had stains on them. I feel creepy crawlies in them. Overall haunted vibe. Should have gone to the Marriott. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded March 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2013</t>
+  </si>
+  <si>
+    <t>The room was somewhat clean. But I was scared to take off my shoes. Faint smell of smoke on towels and bedding. Do people jump up and down all night? Walls are extremely thin. The sheets had stains on them. I feel creepy crawlies in them. Overall haunted vibe. Should have gone to the Marriott. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r155249269-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>155249269</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Overpriced !</t>
+  </si>
+  <si>
+    <t>Very poor bedding cement would have felt better. No one at desk after 11 pm. Room outraged needs lots of maintenance. Really wanted a refund :(--- Guest service was not good at check in was on phone &amp; ignored us. Didn't tell us about property or area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Very poor bedding cement would have felt better. No one at desk after 11 pm. Room outraged needs lots of maintenance. Really wanted a refund :(--- Guest service was not good at check in was on phone &amp; ignored us. Didn't tell us about property or area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r154089842-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>154089842</t>
+  </si>
+  <si>
+    <t>03/09/2013</t>
+  </si>
+  <si>
+    <t>Good Value for the price</t>
+  </si>
+  <si>
+    <t>My home was getting fumigated so I needed to relocate for three days. The staff was outstanding! Especially Tammy. I was also able to bring our small dog. I really enjoyed my experience at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded March 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2013</t>
+  </si>
+  <si>
+    <t>My home was getting fumigated so I needed to relocate for three days. The staff was outstanding! Especially Tammy. I was also able to bring our small dog. I really enjoyed my experience at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r148193297-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>148193297</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>There for business</t>
+  </si>
+  <si>
+    <t>Great if you need a little kitchen but I went out to eat each night. Lots of choices for dinner in the surrounding areas and close to the mall and beaches. 2nd floor must of been a smoking floor, not sure if it still is but it does have the smell. Bed was hard as a rock and the pillows were horrible. Bathroom is clean but the shower curtain was ripped and each morning at 5am it sounded like someone was drilling. Breakfast consisted of pre-wrapped muffins, package oatmeal a few pieces of fruit, coffee and tea. Front desk folks are very friendly and accomodating. Felt safe walking around.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded December 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2012</t>
+  </si>
+  <si>
+    <t>Great if you need a little kitchen but I went out to eat each night. Lots of choices for dinner in the surrounding areas and close to the mall and beaches. 2nd floor must of been a smoking floor, not sure if it still is but it does have the smell. Bed was hard as a rock and the pillows were horrible. Bathroom is clean but the shower curtain was ripped and each morning at 5am it sounded like someone was drilling. Breakfast consisted of pre-wrapped muffins, package oatmeal a few pieces of fruit, coffee and tea. Front desk folks are very friendly and accomodating. Felt safe walking around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r146406417-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>146406417</t>
+  </si>
+  <si>
+    <t>11/28/2012</t>
+  </si>
+  <si>
+    <t>Dated, and cleaning needs work; excellent customer service</t>
+  </si>
+  <si>
+    <t>I had an okay stay at this Extended Stay.  First the pros:1. Excellent customer service -- all the front desk staff I came across were friendly and kind, especially the weekend staff.  They also leave travel toiletries in a basket at the front desk in case you need them.2. Decent location. Close enough to major thoroughfares in Torrance, but on a fairly calm stretch of Torrance Blvd.3.  Good water pressure -- nice for showers.However, there were some cons that make it unlikely I would try to come back again:1. The bathroom was not very clean; there were hairs stuck to the side of the bathtub and the sink.2. Despite some renovations, the room definitely showed its age.  The screens on the windows were bent, the curtains did not close properly, and many things in the room (including kitchen appliances, closet and window areas, tub) looked old / discolored and very '70s.3. There was a very strange, intermittent, low rumble (which made the room vibrate) in the room -- I am a sound sleeper so could forget about it once I fell asleep, but it made being in the room a little annoying on some evenings.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded November 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2012</t>
+  </si>
+  <si>
+    <t>I had an okay stay at this Extended Stay.  First the pros:1. Excellent customer service -- all the front desk staff I came across were friendly and kind, especially the weekend staff.  They also leave travel toiletries in a basket at the front desk in case you need them.2. Decent location. Close enough to major thoroughfares in Torrance, but on a fairly calm stretch of Torrance Blvd.3.  Good water pressure -- nice for showers.However, there were some cons that make it unlikely I would try to come back again:1. The bathroom was not very clean; there were hairs stuck to the side of the bathtub and the sink.2. Despite some renovations, the room definitely showed its age.  The screens on the windows were bent, the curtains did not close properly, and many things in the room (including kitchen appliances, closet and window areas, tub) looked old / discolored and very '70s.3. There was a very strange, intermittent, low rumble (which made the room vibrate) in the room -- I am a sound sleeper so could forget about it once I fell asleep, but it made being in the room a little annoying on some evenings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r144712615-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>144712615</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Best employees ever!</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay with Extended Stay very much.  The rooms are very clean, washer and dryers work great and the staff is what makes this place an A+. They were warm and friendly and extremely attentive. I'll definitely be backMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded November 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2012</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay with Extended Stay very much.  The rooms are very clean, washer and dryers work great and the staff is what makes this place an A+. They were warm and friendly and extremely attentive. I'll definitely be backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r138724312-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>138724312</t>
+  </si>
+  <si>
+    <t>08/28/2012</t>
+  </si>
+  <si>
+    <t>Overall experience</t>
+  </si>
+  <si>
+    <t>From check in to check out every thing was great. Staff were warm and friendly and extremely attentive. Room was very clean and well appointed. Kitchen was a definite plusIf this Hotel is an example of the chain I will definitely use them againMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded September 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2012</t>
+  </si>
+  <si>
+    <t>From check in to check out every thing was great. Staff were warm and friendly and extremely attentive. Room was very clean and well appointed. Kitchen was a definite plusIf this Hotel is an example of the chain I will definitely use them againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r138154194-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>138154194</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>The most horrible extended stay hotel</t>
+  </si>
+  <si>
+    <t>In August, I stayed at the Extended Stay America in Torrance for 1 week due to our kitchen remodel.  It was the most horrible experience I ever had.
+Upon check in, they gave me a room key that didn't work when I arrived at the room.  I had to get it replaced 3 times before it worked.  The corridor halls looked depressing and the room was not very nice.  It had a bed, bathroom and little kitchen area.  The room was very drab to stay in for any length of time.  When I arrived at the hotel, no one told me that I had to get basics like shampoo and a hair dryer from the front desk.  The hair dryer actually had to be checked out.  Because I didn't know, I had to catch an appt. the next morning with wet hair.  The room was dirty and depressing.  The minute I woke up, I wanted to run out of the room.  I couldn't relax in the room provided.
+I had paid to stay for one week.  On my 5th night, I arrived at the hotel at 10:00 p.m.  My key did not work again.  So I went to the front desk and they re-activated my key.  I went to the room, opened the door, and I found a man in his underwear brushing his teeth in the bathroom.  As you can imagine, I was in SHOCK.  I ran to the...In August, I stayed at the Extended Stay America in Torrance for 1 week due to our kitchen remodel.  It was the most horrible experience I ever had.Upon check in, they gave me a room key that didn't work when I arrived at the room.  I had to get it replaced 3 times before it worked.  The corridor halls looked depressing and the room was not very nice.  It had a bed, bathroom and little kitchen area.  The room was very drab to stay in for any length of time.  When I arrived at the hotel, no one told me that I had to get basics like shampoo and a hair dryer from the front desk.  The hair dryer actually had to be checked out.  Because I didn't know, I had to catch an appt. the next morning with wet hair.  The room was dirty and depressing.  The minute I woke up, I wanted to run out of the room.  I couldn't relax in the room provided.I had paid to stay for one week.  On my 5th night, I arrived at the hotel at 10:00 p.m.  My key did not work again.  So I went to the front desk and they re-activated my key.  I went to the room, opened the door, and I found a man in his underwear brushing his teeth in the bathroom.  As you can imagine, I was in SHOCK.  I ran to the lobby and asked the worker why there was another man in my room.  The worker said they thought I left because I didn't have much stuff in the room.  So they proceeded to clean the room and empty everything I had in the refrigerator.  I was furious....I told her that I paid for 7 days.  It didn't matter if I did not have much stuff in the room.  Also, if in doubt, they should have called me.  I warned my husband who was coming later about what happened.  It took 1 1/2 hours for her to give us another room.  She gave us a handicapped room so it did not have a bathtub and counter next to the sink.  After I left, I completed a survey to let them know how terrible their hotel was.  The manager sent an email saying there was some miscommunications and he'd like to offer me a free night certificate.  I told him that I didn't want a free night.  I told the manager the proper compensation should be a credit for the last 2 night of inconvenience.  Well....he never replied to my request.  This showed me how much the staff and management does not care about people.After the week of horror, I found another extended stay hotel down the street since I needed a place for 2 more weeks.  It was a much better hotel with great service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Owner at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded August 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2012</t>
+  </si>
+  <si>
+    <t>In August, I stayed at the Extended Stay America in Torrance for 1 week due to our kitchen remodel.  It was the most horrible experience I ever had.
+Upon check in, they gave me a room key that didn't work when I arrived at the room.  I had to get it replaced 3 times before it worked.  The corridor halls looked depressing and the room was not very nice.  It had a bed, bathroom and little kitchen area.  The room was very drab to stay in for any length of time.  When I arrived at the hotel, no one told me that I had to get basics like shampoo and a hair dryer from the front desk.  The hair dryer actually had to be checked out.  Because I didn't know, I had to catch an appt. the next morning with wet hair.  The room was dirty and depressing.  The minute I woke up, I wanted to run out of the room.  I couldn't relax in the room provided.
+I had paid to stay for one week.  On my 5th night, I arrived at the hotel at 10:00 p.m.  My key did not work again.  So I went to the front desk and they re-activated my key.  I went to the room, opened the door, and I found a man in his underwear brushing his teeth in the bathroom.  As you can imagine, I was in SHOCK.  I ran to the...In August, I stayed at the Extended Stay America in Torrance for 1 week due to our kitchen remodel.  It was the most horrible experience I ever had.Upon check in, they gave me a room key that didn't work when I arrived at the room.  I had to get it replaced 3 times before it worked.  The corridor halls looked depressing and the room was not very nice.  It had a bed, bathroom and little kitchen area.  The room was very drab to stay in for any length of time.  When I arrived at the hotel, no one told me that I had to get basics like shampoo and a hair dryer from the front desk.  The hair dryer actually had to be checked out.  Because I didn't know, I had to catch an appt. the next morning with wet hair.  The room was dirty and depressing.  The minute I woke up, I wanted to run out of the room.  I couldn't relax in the room provided.I had paid to stay for one week.  On my 5th night, I arrived at the hotel at 10:00 p.m.  My key did not work again.  So I went to the front desk and they re-activated my key.  I went to the room, opened the door, and I found a man in his underwear brushing his teeth in the bathroom.  As you can imagine, I was in SHOCK.  I ran to the lobby and asked the worker why there was another man in my room.  The worker said they thought I left because I didn't have much stuff in the room.  So they proceeded to clean the room and empty everything I had in the refrigerator.  I was furious....I told her that I paid for 7 days.  It didn't matter if I did not have much stuff in the room.  Also, if in doubt, they should have called me.  I warned my husband who was coming later about what happened.  It took 1 1/2 hours for her to give us another room.  She gave us a handicapped room so it did not have a bathtub and counter next to the sink.  After I left, I completed a survey to let them know how terrible their hotel was.  The manager sent an email saying there was some miscommunications and he'd like to offer me a free night certificate.  I told him that I didn't want a free night.  I told the manager the proper compensation should be a credit for the last 2 night of inconvenience.  Well....he never replied to my request.  This showed me how much the staff and management does not care about people.After the week of horror, I found another extended stay hotel down the street since I needed a place for 2 more weeks.  It was a much better hotel with great service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r137507871-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>137507871</t>
+  </si>
+  <si>
+    <t>08/17/2012</t>
+  </si>
+  <si>
+    <t>Decent, clean, surroundings and exceptional staff</t>
+  </si>
+  <si>
+    <t>The hotel staff, from the manager all the way through to the house keeping staff are all very professional, helpful and friendly. The rooms were clean, the matresses and pillows were all new and the kitchen area was very convenient. Overall, this hotel is very fairly priced, and if you are looking for comfortable rooms with a very accomodating staff while staying within your budget, this hotel is a good choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded August 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2012</t>
+  </si>
+  <si>
+    <t>The hotel staff, from the manager all the way through to the house keeping staff are all very professional, helpful and friendly. The rooms were clean, the matresses and pillows were all new and the kitchen area was very convenient. Overall, this hotel is very fairly priced, and if you are looking for comfortable rooms with a very accomodating staff while staying within your budget, this hotel is a good choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r129312481-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>129312481</t>
+  </si>
+  <si>
+    <t>05/03/2012</t>
+  </si>
+  <si>
+    <t>Good Value for Us</t>
+  </si>
+  <si>
+    <t>I stayed at this Extended Stay previously and it has been upgraded since then. It wasn't a complete renovation, but it is better than before with updated decor, mattresses and counter tops, maybe even carpet. The stay was uneventful and the price we received was a very good value for the location. The only items that I would mention are that the check-in was quite slow since there was only one employee at the desk (arrival around 6pm) and the shower head in our shower sounded like a train for some reason. It was very annoying since we had to adjust the water flow to get rid of it, multiple times. Also, I asked for a wine opener from the front desk and never received any response on its existence. At least call me and tell me that you don't have one.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this Extended Stay previously and it has been upgraded since then. It wasn't a complete renovation, but it is better than before with updated decor, mattresses and counter tops, maybe even carpet. The stay was uneventful and the price we received was a very good value for the location. The only items that I would mention are that the check-in was quite slow since there was only one employee at the desk (arrival around 6pm) and the shower head in our shower sounded like a train for some reason. It was very annoying since we had to adjust the water flow to get rid of it, multiple times. Also, I asked for a wine opener from the front desk and never received any response on its existence. At least call me and tell me that you don't have one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r127392096-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>127392096</t>
+  </si>
+  <si>
+    <t>04/06/2012</t>
+  </si>
+  <si>
+    <t>Clogged Toilet....very bad experience</t>
+  </si>
+  <si>
+    <t>We just arrived and after two uses of the toilet, the water overflowed and all we were given was a plunger!....Not after my husband and I started fighting that they realized that we weren't in a good condition...then we were offered another room. Before booking this room I read few reviews here and majority of them were ok reviews. Average and a good clean motel for a good value. Since we're staying only for a night, I decided to book it, anyway it's just for a night. Nothing won't go wrong. And then the unexpected happened. I read that this was also newly renovated but why a bad toilet with bad plumbing? Water even leaked down the reception area since we were at the second level. I have to give credit to the clean room and a nice kitchen area, and yeah they provide more pillows too. That's it.MoreShow less</t>
+  </si>
+  <si>
+    <t>We just arrived and after two uses of the toilet, the water overflowed and all we were given was a plunger!....Not after my husband and I started fighting that they realized that we weren't in a good condition...then we were offered another room. Before booking this room I read few reviews here and majority of them were ok reviews. Average and a good clean motel for a good value. Since we're staying only for a night, I decided to book it, anyway it's just for a night. Nothing won't go wrong. And then the unexpected happened. I read that this was also newly renovated but why a bad toilet with bad plumbing? Water even leaked down the reception area since we were at the second level. I have to give credit to the clean room and a nice kitchen area, and yeah they provide more pillows too. That's it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r124456712-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>124456712</t>
+  </si>
+  <si>
+    <t>02/11/2012</t>
+  </si>
+  <si>
+    <t>Good value and clean comfortable room</t>
+  </si>
+  <si>
+    <t>The reservation and reception was very friendly and efficient. I was offered a choice of rooms.Got a large room with a flat screen tv. They do not offer daily maid service but do have a  kitchen and dinnerware in the rooms.  Bed, shower  and linens were excellent. Located near Del Amo Shopping CenterMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance Blvd., responded to this reviewResponded October 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2012</t>
+  </si>
+  <si>
+    <t>The reservation and reception was very friendly and efficient. I was offered a choice of rooms.Got a large room with a flat screen tv. They do not offer daily maid service but do have a  kitchen and dinnerware in the rooms.  Bed, shower  and linens were excellent. Located near Del Amo Shopping CenterMore</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2062,4026 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>159</v>
+      </c>
+      <c r="X14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>185</v>
+      </c>
+      <c r="X17" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>193</v>
+      </c>
+      <c r="X18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>201</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>202</v>
+      </c>
+      <c r="X19" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>210</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>211</v>
+      </c>
+      <c r="X20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" t="s">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s">
+        <v>218</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>219</v>
+      </c>
+      <c r="O21" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>220</v>
+      </c>
+      <c r="X21" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s">
+        <v>227</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>219</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>228</v>
+      </c>
+      <c r="X22" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" t="s">
+        <v>233</v>
+      </c>
+      <c r="K23" t="s">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>236</v>
+      </c>
+      <c r="O23" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>237</v>
+      </c>
+      <c r="X23" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J24" t="s">
+        <v>242</v>
+      </c>
+      <c r="K24" t="s">
+        <v>243</v>
+      </c>
+      <c r="L24" t="s">
+        <v>244</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>236</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>245</v>
+      </c>
+      <c r="X24" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>248</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>249</v>
+      </c>
+      <c r="J25" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" t="s">
+        <v>251</v>
+      </c>
+      <c r="L25" t="s">
+        <v>252</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>236</v>
+      </c>
+      <c r="O25" t="s">
+        <v>83</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>253</v>
+      </c>
+      <c r="X25" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J26" t="s">
+        <v>258</v>
+      </c>
+      <c r="K26" t="s">
+        <v>259</v>
+      </c>
+      <c r="L26" t="s">
+        <v>260</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>261</v>
+      </c>
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>262</v>
+      </c>
+      <c r="X26" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>266</v>
+      </c>
+      <c r="J27" t="s">
+        <v>267</v>
+      </c>
+      <c r="K27" t="s">
+        <v>268</v>
+      </c>
+      <c r="L27" t="s">
+        <v>269</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>270</v>
+      </c>
+      <c r="O27" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>271</v>
+      </c>
+      <c r="X27" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>275</v>
+      </c>
+      <c r="J28" t="s">
+        <v>276</v>
+      </c>
+      <c r="K28" t="s">
+        <v>277</v>
+      </c>
+      <c r="L28" t="s">
+        <v>278</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>279</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J29" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>285</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>286</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" t="s">
+        <v>288</v>
+      </c>
+      <c r="K30" t="s">
+        <v>289</v>
+      </c>
+      <c r="L30" t="s">
+        <v>290</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>279</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>291</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>292</v>
+      </c>
+      <c r="J31" t="s">
+        <v>293</v>
+      </c>
+      <c r="K31" t="s">
+        <v>294</v>
+      </c>
+      <c r="L31" t="s">
+        <v>295</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>294</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>298</v>
+      </c>
+      <c r="J32" t="s">
+        <v>299</v>
+      </c>
+      <c r="K32" t="s">
+        <v>300</v>
+      </c>
+      <c r="L32" t="s">
+        <v>301</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>302</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>304</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>305</v>
+      </c>
+      <c r="J33" t="s">
+        <v>306</v>
+      </c>
+      <c r="K33" t="s">
+        <v>307</v>
+      </c>
+      <c r="L33" t="s">
+        <v>308</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>310</v>
+      </c>
+      <c r="J34" t="s">
+        <v>311</v>
+      </c>
+      <c r="K34" t="s">
+        <v>312</v>
+      </c>
+      <c r="L34" t="s">
+        <v>313</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>314</v>
+      </c>
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>315</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>316</v>
+      </c>
+      <c r="J35" t="s">
+        <v>317</v>
+      </c>
+      <c r="K35" t="s">
+        <v>318</v>
+      </c>
+      <c r="L35" t="s">
+        <v>319</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>320</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>322</v>
+      </c>
+      <c r="J36" t="s">
+        <v>323</v>
+      </c>
+      <c r="K36" t="s">
+        <v>324</v>
+      </c>
+      <c r="L36" t="s">
+        <v>325</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>320</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>328</v>
+      </c>
+      <c r="J37" t="s">
+        <v>329</v>
+      </c>
+      <c r="K37" t="s">
+        <v>330</v>
+      </c>
+      <c r="L37" t="s">
+        <v>331</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>320</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>332</v>
+      </c>
+      <c r="X37" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>335</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>336</v>
+      </c>
+      <c r="J38" t="s">
+        <v>337</v>
+      </c>
+      <c r="K38" t="s">
+        <v>338</v>
+      </c>
+      <c r="L38" t="s">
+        <v>339</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>340</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>341</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>342</v>
+      </c>
+      <c r="J39" t="s">
+        <v>343</v>
+      </c>
+      <c r="K39" t="s">
+        <v>344</v>
+      </c>
+      <c r="L39" t="s">
+        <v>345</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>340</v>
+      </c>
+      <c r="O39" t="s">
+        <v>73</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>347</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>348</v>
+      </c>
+      <c r="J40" t="s">
+        <v>349</v>
+      </c>
+      <c r="K40" t="s">
+        <v>350</v>
+      </c>
+      <c r="L40" t="s">
+        <v>351</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>352</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>353</v>
+      </c>
+      <c r="J41" t="s">
+        <v>354</v>
+      </c>
+      <c r="K41" t="s">
+        <v>355</v>
+      </c>
+      <c r="L41" t="s">
+        <v>356</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>357</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>359</v>
+      </c>
+      <c r="J42" t="s">
+        <v>360</v>
+      </c>
+      <c r="K42" t="s">
+        <v>361</v>
+      </c>
+      <c r="L42" t="s">
+        <v>362</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>364</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>365</v>
+      </c>
+      <c r="J43" t="s">
+        <v>366</v>
+      </c>
+      <c r="K43" t="s">
+        <v>367</v>
+      </c>
+      <c r="L43" t="s">
+        <v>368</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>369</v>
+      </c>
+      <c r="O43" t="s">
+        <v>83</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>371</v>
+      </c>
+      <c r="J44" t="s">
+        <v>372</v>
+      </c>
+      <c r="K44" t="s">
+        <v>373</v>
+      </c>
+      <c r="L44" t="s">
+        <v>374</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>375</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>376</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>377</v>
+      </c>
+      <c r="J45" t="s">
+        <v>378</v>
+      </c>
+      <c r="K45" t="s">
+        <v>379</v>
+      </c>
+      <c r="L45" t="s">
+        <v>380</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>381</v>
+      </c>
+      <c r="O45" t="s">
+        <v>73</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>383</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>384</v>
+      </c>
+      <c r="J46" t="s">
+        <v>385</v>
+      </c>
+      <c r="K46" t="s">
+        <v>386</v>
+      </c>
+      <c r="L46" t="s">
+        <v>387</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>388</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>389</v>
+      </c>
+      <c r="X46" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>392</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>393</v>
+      </c>
+      <c r="J47" t="s">
+        <v>394</v>
+      </c>
+      <c r="K47" t="s">
+        <v>395</v>
+      </c>
+      <c r="L47" t="s">
+        <v>396</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>397</v>
+      </c>
+      <c r="X47" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>401</v>
+      </c>
+      <c r="J48" t="s">
+        <v>402</v>
+      </c>
+      <c r="K48" t="s">
+        <v>403</v>
+      </c>
+      <c r="L48" t="s">
+        <v>404</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>405</v>
+      </c>
+      <c r="O48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>406</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>407</v>
+      </c>
+      <c r="J49" t="s">
+        <v>408</v>
+      </c>
+      <c r="K49" t="s">
+        <v>409</v>
+      </c>
+      <c r="L49" t="s">
+        <v>410</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>405</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>411</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>412</v>
+      </c>
+      <c r="J50" t="s">
+        <v>413</v>
+      </c>
+      <c r="K50" t="s">
+        <v>414</v>
+      </c>
+      <c r="L50" t="s">
+        <v>415</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>416</v>
+      </c>
+      <c r="X50" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>419</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>420</v>
+      </c>
+      <c r="J51" t="s">
+        <v>421</v>
+      </c>
+      <c r="K51" t="s">
+        <v>422</v>
+      </c>
+      <c r="L51" t="s">
+        <v>423</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O51" t="s">
+        <v>73</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>425</v>
+      </c>
+      <c r="X51" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>428</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>429</v>
+      </c>
+      <c r="J52" t="s">
+        <v>430</v>
+      </c>
+      <c r="K52" t="s">
+        <v>431</v>
+      </c>
+      <c r="L52" t="s">
+        <v>432</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>433</v>
+      </c>
+      <c r="X52" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>436</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>437</v>
+      </c>
+      <c r="J53" t="s">
+        <v>438</v>
+      </c>
+      <c r="K53" t="s">
+        <v>439</v>
+      </c>
+      <c r="L53" t="s">
+        <v>440</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>441</v>
+      </c>
+      <c r="O53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>442</v>
+      </c>
+      <c r="X53" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>445</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>446</v>
+      </c>
+      <c r="J54" t="s">
+        <v>447</v>
+      </c>
+      <c r="K54" t="s">
+        <v>448</v>
+      </c>
+      <c r="L54" t="s">
+        <v>449</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>450</v>
+      </c>
+      <c r="O54" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>451</v>
+      </c>
+      <c r="X54" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>454</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>455</v>
+      </c>
+      <c r="J55" t="s">
+        <v>456</v>
+      </c>
+      <c r="K55" t="s">
+        <v>457</v>
+      </c>
+      <c r="L55" t="s">
+        <v>458</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>459</v>
+      </c>
+      <c r="O55" t="s">
+        <v>73</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>460</v>
+      </c>
+      <c r="X55" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>463</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>464</v>
+      </c>
+      <c r="J56" t="s">
+        <v>465</v>
+      </c>
+      <c r="K56" t="s">
+        <v>466</v>
+      </c>
+      <c r="L56" t="s">
+        <v>467</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>468</v>
+      </c>
+      <c r="O56" t="s">
+        <v>83</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>469</v>
+      </c>
+      <c r="X56" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>472</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>473</v>
+      </c>
+      <c r="J57" t="s">
+        <v>474</v>
+      </c>
+      <c r="K57" t="s">
+        <v>475</v>
+      </c>
+      <c r="L57" t="s">
+        <v>476</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>468</v>
+      </c>
+      <c r="O57" t="s">
+        <v>83</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>477</v>
+      </c>
+      <c r="X57" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>480</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>481</v>
+      </c>
+      <c r="J58" t="s">
+        <v>482</v>
+      </c>
+      <c r="K58" t="s">
+        <v>483</v>
+      </c>
+      <c r="L58" t="s">
+        <v>484</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>468</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>485</v>
+      </c>
+      <c r="X58" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>488</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>489</v>
+      </c>
+      <c r="J59" t="s">
+        <v>490</v>
+      </c>
+      <c r="K59" t="s">
+        <v>491</v>
+      </c>
+      <c r="L59" t="s">
+        <v>492</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>493</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>494</v>
+      </c>
+      <c r="X59" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>497</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>498</v>
+      </c>
+      <c r="J60" t="s">
+        <v>499</v>
+      </c>
+      <c r="K60" t="s">
+        <v>500</v>
+      </c>
+      <c r="L60" t="s">
+        <v>501</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>493</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>494</v>
+      </c>
+      <c r="X60" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35838</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>503</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>504</v>
+      </c>
+      <c r="J61" t="s">
+        <v>505</v>
+      </c>
+      <c r="K61" t="s">
+        <v>506</v>
+      </c>
+      <c r="L61" t="s">
+        <v>507</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>508</v>
+      </c>
+      <c r="O61" t="s">
+        <v>73</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>509</v>
+      </c>
+      <c r="X61" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>511</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_263.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_263.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="572">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Yesenia G</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Only good thing about this place is the neighborhood. Staff is just horrible. Creepy male working front desk gave me nightmares, he’s so incompetent it’s sad. The female at front desk RUDE! She seems to hate her life... would not recommend this place at all... ur better off at a motel 6More</t>
   </si>
   <si>
+    <t>622gladysi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r565964976-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Expected higher level of cleanliness and more amenities for the price despite its advertising of minimal accommodations.  Staff also not knowledgeable about environs.  Check-in was good and the attendant was friendly, but that's where the satisfactory part of this stay ended.More</t>
   </si>
   <si>
+    <t>F7117MLmichaelm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r563470652-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>The room was fine, I went to open the door under the sink and cabnet door to the right side of the sink. I went to cloase the sink door. My finger was caught in the door trying to close it. The cabnets doors should close is the same direction, that would stop a person from jamming the door on a finger. Since they close in opsite directions, you can easily pinch your finger.More</t>
   </si>
   <si>
+    <t>phree2bme2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r525470219-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -279,6 +291,9 @@
     <t>I enjoyed my stay.  It was a smoking room but it was  very clean and fresh.  That floor and the room smelled very fresh and clean.  The staff was very nice and helpful when it came to getting checked in and looking for somewhere to get food.                                                                                                                                                       More</t>
   </si>
   <si>
+    <t>cdjnr19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r516109719-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -303,6 +318,9 @@
     <t>This is not a good hotel. I got my room around 05pm. N check out was 11am. Every extend  Hr Usd 25. So many dogs n not clean . Watch out for bug's Do take your own towel if you are staying here. Toilers are not clean take plunger also. Breakfast forget it . No hot meals.oats n cup cake. By 0920am they will clear it. Staff are Oky . Room will be cleaned every 48 hrs. Or will be charged. No cooking facilities. No plates or pots. Not even water bottle. They may be pet friendly but not kids friendly. Limited staff. Can not recommend to any . Hotel should be reviewed by Inspector . I stayed here for two days . There are many good hotels in surrounding . I hope these reviews will be taken in to consider and try to make better hotel. Location is very good. More</t>
   </si>
   <si>
+    <t>encore m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r509735237-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -330,6 +348,9 @@
     <t>I would like to share my disappointment.First of all, I felt the rooms and the corridors are dirty. The smell is really bad everyday (we stood 2 nights).I think the room rate is a way too expensive for the service.Beside, the breakfast is really light with no tables to enjoy it.More</t>
   </si>
   <si>
+    <t>clfabla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r506815027-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -357,6 +378,9 @@
     <t>Low scores pertaining to quality service result from the incompetence of the staff, particularly during checkout where staff neglects to apply coupon code. Very inconvenienced to call back and have to correct the billing. This has happened multiple times at multiple locations. More</t>
   </si>
   <si>
+    <t>ginad891</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r506662380-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -381,6 +405,9 @@
     <t>I travel often on business. Typically, I stay for 3-10 days at a time. This was my first stay at this location. I promise it will be my last.  They told me one rate over the phone, after I booked they changed the rate. They didn't book me for the right amount of dates. Then when I went to resolve it, they told me I couldn't extended cause they were over booked. That explains why they didn't book me for my entire stay initially. My room was filthy. There was blood stains on my bed sheets but they didn't have another room to put me in. So I had to go down myself and exchange my sheets. No room service was provided. There were no kitchen utensils for me to use. Guests were smoking cigarettes and marijuana all throughout the hotel.   It was just very bad. My time, money, and value was clearly not taken into account. Even still, I have reached out to corporate office and no one has returned my call. I was supposed to be contacted with in 48 hrs. It's been 5 days.More</t>
   </si>
   <si>
+    <t>U1638KBlaurad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r505500774-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -405,6 +432,9 @@
     <t>The outside of building looks good. Then you walk inside to the lobby and a horrible smell of dirty musty old carpeting. The coffee area is dirty and not stocked. The receptionist was lack luster. Hard to hear her speaking, I am 29 so it wasn't my hearing! The kitchen didn't have any plates, utensils, no pot and pans. No toster. The refrigerator didn't work. The TV went out. There was no one to fix anything. I was told I had to wait until "the guy" came in the next day!  The ONLY good thing about this place was how it looked on the outside and that it was in Torrance. I will not recommend this hotel until they clean it up! Including getting better staff! They don't seem to care about the guests! More</t>
   </si>
   <si>
+    <t>heidimB3055LX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r500241781-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -429,6 +459,9 @@
     <t>Manager should be fired! Horrible customer service from her. Replacing her with any of the other workers here would be an improvement! Everyone else who works here is accommodating and very pleasant!!More</t>
   </si>
   <si>
+    <t>maluhs2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r500125366-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -453,6 +486,9 @@
     <t>1.  Internet is slow.  You have to pay 3.99 to have the normal speed, si to speak 2.  Staff not so welcoming.  Imagine telling us to go get our drinking water from 7-11 without letting us know that they have a vending machine 3.  They are conserving water so don't expect the normal water volume in your bathroom...barely there!More</t>
   </si>
   <si>
+    <t>greenstarg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r499825199-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -477,6 +513,9 @@
     <t>staff is great hotel is clean and shower is hot  I stayed here for 4 weeks and am very pleased. uber downed to the beach for $5 every time. This was the best experience I have had at an extended stay hotel.More</t>
   </si>
   <si>
+    <t>jerryd693</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r498406152-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -504,6 +543,9 @@
     <t>Perfect location. Great leadership by Holly the general manager. Her team was very professional and friendly. Will be back to stay whenever work tales me there. Great location for food and not too far from the beach.More</t>
   </si>
   <si>
+    <t>181delp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r494824876-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -528,6 +570,9 @@
     <t>The grounds and room was clean, I was there 10 weeks and most staff were pleasant. Very good house keeping staff. The area I was in was quite noisy. Good choice of eateries within walking distance. Would be nice to have a place to print boarding passes, even with a small charge. More</t>
   </si>
   <si>
+    <t>danielae499</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r493434231-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -555,6 +600,9 @@
     <t>Extremely Poor/Terrible. Won't stay ever. Dissatisfied with customer service, room odor and hotel odor in general. Poor "breakfast". Hotel outside looks okay, inside looks old and not an appearance of clean. Connectors and some lights did not work. Not hot water on the second day. My room was not cleaned.More</t>
   </si>
   <si>
+    <t>Jeanine K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r461596754-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -582,6 +630,9 @@
     <t>I agree with the other reviews. Most of the people who work there act like they are doing you a favor to help you. There is never anyone at the front desk. They are in the back room and you have to call out to get someone to help you. Most of the cigarette smoke you are smelling is coming from the employees smoking outside the hotel by the front door. The front planter is full of cigarette butts because they are too lazy to walk a few steps to the ashtray which is overflowing with butts. A smile and being friendly goes a long way. There is no ice machine or really any amenities. Ask for a blow drier at the front desk because when they run out your out of luck. A dog friendly hotel that does not supply poop bags, so the lawn is covered with poop. I was practically assaulted by the night crew smoking outside the front door and the mouthing off didn't stop there, they continued their inappropriate banter as I went down the hall back to my room at 11:00 pm. I have to commend the Latina girl at the from desk who was very sweet and apologetic for their bad behavior the following morning. People should appreciate the fact they have jobs. I would never stay there again.More</t>
   </si>
   <si>
+    <t>Jodee68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r458781561-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -606,6 +657,9 @@
     <t>When checking in, Front Desk Clerk was not very personal nor friendly. She acted as if I was bothering her. It took a few minutes for her to check me in and said aloud that my credit card was declined twice, which was not. She asked me my phone number out load instead of having me writing it down as there were other guest standing around. She also told me my room number aloud, which I was not comfortable with knowing other guest could here this. She did not explain about the amenities nor about needing dishes, silverware etc. Parking was not convenient at all. When I got off the elevator there was a horrible smell down the hallway. When I got to my room there was no place to put my luggage as the wall rack was broken from the wall. The decor looked very worn and chairs were stained as well as the blanket. I went into the bathroom to find hair in the tub as well as the rug. A/C unit did not work properly. The Bed was very uncomfortable and pillow cases were wrinkled as if they were used. I went to the front desk to get cups, silverware and bowls.  I stood there for awhile until I heard a voice talk over rap music that was playing with filthy lyrics. I looked at the direction the voice was coming from to see the Front desk...When checking in, Front Desk Clerk was not very personal nor friendly. She acted as if I was bothering her. It took a few minutes for her to check me in and said aloud that my credit card was declined twice, which was not. She asked me my phone number out load instead of having me writing it down as there were other guest standing around. She also told me my room number aloud, which I was not comfortable with knowing other guest could here this. She did not explain about the amenities nor about needing dishes, silverware etc. Parking was not convenient at all. When I got off the elevator there was a horrible smell down the hallway. When I got to my room there was no place to put my luggage as the wall rack was broken from the wall. The decor looked very worn and chairs were stained as well as the blanket. I went into the bathroom to find hair in the tub as well as the rug. A/C unit did not work properly. The Bed was very uncomfortable and pillow cases were wrinkled as if they were used. I went to the front desk to get cups, silverware and bowls.  I stood there for awhile until I heard a voice talk over rap music that was playing with filthy lyrics. I looked at the direction the voice was coming from to see the Front desk clerk sitting in a dark corner on her cell phone. I asked for the cups and bowls which took awhile. I also mentioned to her about the so called luggage rack was broken, which she said nothing. I wanted to change rooms but she said nothing was available. I did not believe that. She came back with the supplies and I had to ask for another plastic cup because the rim was broken, cracked and sharp. She gave me an attitude which was the end of feeling welcomed. I do not recommend this hotel as it is run down and over priced. I felt like I needed another shower even after I left. DisgustingMore</t>
   </si>
   <si>
+    <t>NJunzo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r450840676-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -633,6 +687,9 @@
     <t>If first impression is what counts, mine is definitely not a good one.  In addition to the cigarette smell in my no-smoking room (BTW, smoke smell seems to be a recurrent issue in this hotel), I found out the kitchen cabinet's door to be fallen over the sink as we entered the room.After that, Front Desk moved us to a new room and the remaining of our 10-day stay had no further thrills.* Pros (if any): location - within walking distance to shopping malls (Del Amo Fashion Center, on of USA's largest) and close to a 7 Eleven and gas station.* Cons:  room smell and maintenance, housekeeping policy (1 service per week of stay included)In my next visit to Torrance area will consider new hotel options.More</t>
   </si>
   <si>
+    <t>TwistedAdobo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r433861418-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -660,6 +717,9 @@
     <t>Pros:  Spacious rooms with full kitchen (you have to request for the kitchen amenities from the front desk).  Spacious free parking.  Walking distance to Del Amo Fashion Center.  Laundry area (prepare your quarters).  Near LAX.  Marissa at the front desk was very helpful.Cons:  They only clean the room once a week so it could get a bit messy.  The AC in our room (Room 106) was not working properly, and despite repeated requests with the front desk, this was not immediately fixed.  There is no bellhop service, so, prepare to bring your own luggage. The hotel is near the fire station (could get noisy if the fire trucks are passing by)Neutral:  Free breakfast consists of coffee, tea, muffins and granola barsTip:  Inform the hotel for late check-ins because the front desk personnel is only available up to 10.30 pm.More</t>
   </si>
   <si>
+    <t>TravelingMattyJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r432022647-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -687,6 +747,9 @@
     <t>My house was being renovated and just over a week so instead of being inconvenienced I stayed here. I'm glad I did. It was a nice home away from home. Great staff and clean rooms. It definitely worked for me.More</t>
   </si>
   <si>
+    <t>brjaiswal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r414338939-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -711,6 +774,9 @@
     <t>No Breakfast, No daily room service instead it is mentioned online. Room AC was not working properly. Carpet is very old. No necessary utensils provided. Only positive is its location however Doesn't worth of money you spend.More</t>
   </si>
   <si>
+    <t>hummc97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r402511829-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -738,6 +804,9 @@
     <t>The price was fine compared to other hotels for extended periods of time. The customer service with one or two members of the staff members was what made the stay unpleasant at times. Mary and Tammy were exceptional staff members during my stay. They were helpful when needing assistance. Friendly and Professional during my stay. However, there were two other members that were on the afternoon shift that need a little more work on customer service and professionalism. Towels were poor quality. Some staff members were protective of giving out extra towels and soap and other toiletries during my stay. Clean rooms even with service once a week. Overall comfortable for my extended stay during my relocation to the area.More</t>
   </si>
   <si>
+    <t>Albert247</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r393185766-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -762,6 +831,9 @@
     <t>My impression would be similar to a few other reviews-this hotel offers a bare minimum--but then again, for the price, there were no other options in the area.Positives--price, easy check in and out. Quiet--3rd floor. AC was effective--and quiet, so I slept very well. Negative for me was no exercise room.More</t>
   </si>
   <si>
+    <t>jesslovesgoodfood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r388872046-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -786,6 +858,9 @@
     <t>Unfortunately good guests and hotel employees can't know a guest is bad until they've been in and ruined their day or room for all the other well-mannered people. Place isn't bad. Breakfast is basic. Oatmeal, oranges, granola bars, muffins, coffee. All amenities are available but for sanitary and I'm sure for loss prevention reasons, they don't have their rooms stocked with said amenities because of the customers that abuse the system. But all you have to do is ask for what you need and not assume it isn't there. They have shampoo, conditioner, pots, pans, dishes, etc. Now to the really great stuff- service. Tammy at the front desk if beyond amazing. She is so friendly and genuine. Her empathy for customers and knack for customer service shows. There isn't a part in me that she would ever be able to piss off. When I needed something she was on it. Her manager Jessica is also nice be it under stress but I guess who wouldn't be working in a place where you have to deal with problems that involve guests and cops. So my advice is to have patience as a guest because we don't know what they're going through either. I was pissed at first and then realized the world doesn't revolve around me even though Tammy makes me feel like it does. To all the bad guests out there- stop making people that service you miserable, stop...Unfortunately good guests and hotel employees can't know a guest is bad until they've been in and ruined their day or room for all the other well-mannered people. Place isn't bad. Breakfast is basic. Oatmeal, oranges, granola bars, muffins, coffee. All amenities are available but for sanitary and I'm sure for loss prevention reasons, they don't have their rooms stocked with said amenities because of the customers that abuse the system. But all you have to do is ask for what you need and not assume it isn't there. They have shampoo, conditioner, pots, pans, dishes, etc. Now to the really great stuff- service. Tammy at the front desk if beyond amazing. She is so friendly and genuine. Her empathy for customers and knack for customer service shows. There isn't a part in me that she would ever be able to piss off. When I needed something she was on it. Her manager Jessica is also nice be it under stress but I guess who wouldn't be working in a place where you have to deal with problems that involve guests and cops. So my advice is to have patience as a guest because we don't know what they're going through either. I was pissed at first and then realized the world doesn't revolve around me even though Tammy makes me feel like it does. To all the bad guests out there- stop making people that service you miserable, stop making costs increase for others, stop messing things up for everyone else!!!More</t>
   </si>
   <si>
+    <t>Curtis B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r376442061-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -813,6 +888,9 @@
     <t>The staff and reception are professional, friendly and helpful.  I initially booked the hotel thinking I would stay one night, but ended up booking a total of 6 nights.  The location is perfect and ideal next to a giant shopping mall and other locations.More</t>
   </si>
   <si>
+    <t>KCC09876</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r360478918-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -840,6 +918,9 @@
     <t>I stayed over Columbus Day weekend and chose this hotel for the kitchen so I can cook one or two meals. More on that later. When I arrived, I was told I would have a room on the smoking floor, though I requested a non-smoking room. I asked if this was just for the night &amp; was told it was for my entire stay. A little miffed, but not upset as I've stayed in smoking rooms before with no issues. Can't say that ever again. I could smell the smoke before I got off the elevator. OMGosh it was strong and only got worse when I entered the room. The smell was everywhere - in the room, bathroom, furniture, sheets, EVERYTHING! I went back to reception and begged for another room. They said they were fully booked, but offered me a candle (which is illegal I believe) to dull the scent. It didn't work. Now about the fully-equipped kitchen. How surprised was I when I looked in the cupboard to find it bare. No plates, utensils, pots/pans, dish towels. Nothing. Very disappointed. If in the area and looking for a place to stay for the night - drive pass this hotel and keep looking. Not worth a penny of your money. And I didn't mention the 2 a.m. wake up call I got from police banging and yelling for someone staying in the room across the hall from me.More</t>
   </si>
   <si>
+    <t>Neog777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r351039348-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -858,6 +939,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>toobrown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r340074299-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -876,6 +960,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Ann K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r297954175-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -891,6 +978,9 @@
     <t>You get what you pay for. It's far from luxury, but it gets the job done if you are looking for a simple, decent place to stay with or without your pet. I would give the accommodation overall 2 stars (thin scratchy towels, gum on the bathroom floor, no hair conditioner, outdated &amp; thin bed sheets and blankets) but the management (especially Holly) 5 stars.</t>
   </si>
   <si>
+    <t>AtlDave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r282043414-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -909,6 +999,9 @@
     <t>Found this on Priceline Express for one night.  We were going to Catalina the next day so only about 30 minutes from Long Beach Catalina Express port.Exterior and lobby were fine, except the lobby was rather small.  Room was clean except the sink had some black gunk dried in the bottom, which I scrubbed to get out.  Had not stayed in "extended" hotel that I can remember.  Bit hard to find after dark because the sign was not lighted.  Quick check-in.  The free internet was fast enough for us but several faster speeds were available at additional cost.  Bed was comfortable.  Unusual that no glasses or coffee maker were available unless requested.  Either my wife or I had to go back to the front desk to get glasses and dishes, which were quite heavy.  We had leftovers from previous night so plates and silverware were welcome.  The breakfast was grab-n-go, meaning fruit, coffee and granola bars displayed near the door.  Adequate but not very filling.More</t>
   </si>
   <si>
+    <t>Tamlyn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r255507495-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -930,6 +1023,9 @@
     <t>I stayed for two weeks in this disgusting hotel. I got bitten by bedbugs, yet when I approached the manager Ann (asian lady) she didn't want to believe it. She shoved me some coins for the laundry and that was it. She had an awful (bad word deleted ;)) attitude, and refused to refund the nights that I got bitten. I bumped into a gentleman in the elevator,  he overheard my conversation with the manager and told me that he got bitten too!!! The neighbours were extremely noisy, complained about that but yet no actions to at least try to better our stay. Awful staff, awfull experience. Extended stay torrance (del amo circle) is a NO GO!More</t>
   </si>
   <si>
+    <t>Jjabrahms167</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r251438493-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -945,6 +1041,9 @@
     <t>This place should be immediately closed. Dirty and dusty rooms, stained carpet, smells like mold. To make things worse, I'm covered in bug bites. Not sure if they're flea or bed bugs. Worst hotel I've ever stayed at.</t>
   </si>
   <si>
+    <t>Brent P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r244287441-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -963,6 +1062,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Earvin J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r218181831-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -979,6 +1081,9 @@
   </si>
   <si>
     <t>July 2014</t>
+  </si>
+  <si>
+    <t>316JackP316</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r216934181-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
@@ -1005,6 +1110,9 @@
 However, when I filled out...I've stayed at this ESA before as well as the one a mile away at Del Amo Circle.  They are comparable but since the latter was recently renovated, the prices were about $10 a night more for the same accommodations.  So I selected Torrance Blvd.The room was clean, nicely furnished, and had a kitchenette with 2 burner electric stove (no oven), full sized refrigerator, stainless steel sink (no disposer), and quite a few cabinets.  We stayed a week and made green smoothies every day and cooked in every night because we're very nutrition conscious and generally mistrust the processed, non-organic/GMO food served by most restaurants.  Kitchen utensils, cookware, and supplies can be custom ordered and are supplied by the front desk.  No blenders but they offer a toaster.  If you're a gourmet cook, bring some of your own stuff.We had an issue with the refrigerator going out early in our stay and we lost most of our organic produce, dairy, and some poultry before we discovered that it wasn't keeping the food cold.  I was slow to realize it because the light illuminated when the fridge door was opened and the freezer worked fine.  Once I informed the front desk, the refrigerator was promptly replaced with another.  Had some problem getting reimbursed for spoiled food, but finally got a credit from the on duty manager that was somewhat less than my actual loss.However, when I filled out an Extended Stay America online survey and detailed the problem, the General Manager very promptly (like 10 minutes later) wrote me a personal email with additional reimbursement and apologized for the inconvenience of throwing out spoiled food and having to unload and reload refrigerators.  I consider this excellent customer service and appreciated the unsolicited credit he said would be put on my Amex account shortly.  Thanks Saul Perez.The hotel is about 2.5 miles from the ocean and Redondo Beach Pier.  It's across from the Del Amo Mall and about 1.5 miles from Trader Joe's and 3.5 miles from Costco.  All good if you're cooking in and want nutritious sources (Whole Foods Market is also nearby).  For those eating out there are a plethora of restaurants of all types nearby so the only problem would be choosing where to eat.You pretty much need a car if you're going to stay here for any length of time. There is convenient, adjacent parking, easy ingress and egress, but a lot of traffic on Torrance Blvd.  We could hear some traffic noise from our room, which was a couple down from the south end of the building fronting the street.  However, the noise was not an issue.Am returning to this same hotel just after the first of August for 2 more weeks for some more beach time and relaxation.  Obviously I wouldn't stay there again if I didn't feel I was getting good value for dollars spent.More</t>
   </si>
   <si>
+    <t>collz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r216614537-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1029,6 +1137,9 @@
     <t>I was looking for an inexpensive place to stay for one night that was in a safe area.  This fit the bill.  Room was clean, however, smelled of smoke and did indeed have an ashtray in the kitchen.  I was surprised, as I thought smoking wasn't allowed in hotels in California.  I was also surprised that there was no shampoo/lotions or amenities of any type in the rooms.  Being that we were there for just the one night, I hadn't brought any with us. The woman checking us in was a bit disjointed and all over the place.  Wasn't focused on our check-in at all.  If you're going to the Torrance / Redondo Beach area, this is in a good location.  Right across the street from the Del Amo Mall and Redondo Pier is only about a 10 minute drive.  It served our needs for this trip, however, I'd not stay here for any length of time.More</t>
   </si>
   <si>
+    <t>Patricia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r212322703-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1047,6 +1158,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Sam W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r209985794-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1065,6 +1179,9 @@
     <t>Nice location close to Del Amo Mall, but the hotel caters to smokers and pet owners, so the third floor smells like smoke, and many rooms smell like pets. You will often find pet urine in the hallways also. Some of the staff are friendly, but most aren't. Jose and the black woman at the front desk aren't very helpful. Beds are very hard, but that is typical of this chain. Pros: Kitchen area with fridge and microwave, nice parking lot, good location, free fast internet, and laundry room. Cons: No exercise room, rude front desk and maid staff, smoke, pets, thin walls, and could be cleaner. A hotel that bills itself as an extended stay hotel should really have either an exercise room or an arrangement with a local gym for guests to work out there for free.More</t>
   </si>
   <si>
+    <t>秀典 高</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r207434668-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1080,6 +1197,9 @@
     <t xml:space="preserve">The room is very good and quite clean. Service of the hotel is very good.But a plug of bath of room No. 208 didn't work. I wanted to fill up hot water in the bath tab.I don't know why, but it smelled bad in front of our room. </t>
   </si>
   <si>
+    <t>Yong Hoon C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r199668680-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1098,6 +1218,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Jiller27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r194346034-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1116,6 +1239,9 @@
     <t>I'm not a picky person but if I am paying $88 for one night at a good franchise hotel company I would expect more. This hotel is run down, the hallway smells like weed in a non- smoking level, ac didn't work so got moved to another room, just to find out I'm n a handicap room with a bed that feels like ur sleeping on a box spring, heck that might even feel better than this one. If you need anything u call the front desk to be told to come meet them at the front desk and there's only bar soap in the hotel no shampoo or anything else. Closet doors missing, I have to say it is a run down extended stay I've ever been too I would never recommend this place, it's way over priced and too ghetto esp for the location really sad to know that there is a ghetto hotel in a location like this. Also I think there's some pretty woman activity going on here too lol More</t>
   </si>
   <si>
+    <t>Devron A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r194084180-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1134,6 +1260,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>William D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r181744318-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1152,6 +1281,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Gina F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r180269708-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1173,6 +1305,9 @@
     <t>My room was infested with fleas!! It took management 2 days to get someone out to spray. When they did come out they attempted to open the door with the room key they received from management without notifying me!!! Isn't this illegal? Can anyone recommend a good attorney in the area? Also there was a prostitute "living" next door for over a year and a half. She entertained her guests between the hours of 11pm and 5:30am. I notified management and even HIS MANAGER and absolutely nothing was done!! She also had a dog which barked constantly when she escorted them down the stairs. I would NEVER recommend this hotel to anyone!!! Not unless you're into fleas and hookers!!More</t>
   </si>
   <si>
+    <t>Barry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r174497372-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1200,6 +1335,9 @@
     <t>While in the L.A. area for business and our 10th wedding anniversary, we decided to spend the night atExtended StayAmerica Los Angeles-Torrance. We were able to get a great price and the accommodations were very nice...recently renovated. From the time we arrived until the time we left, we felt like we were part of the family. I would highly recommend this hotel and look forward to staying here again. As mentioned, the hotel has recently been renovated and has up-to-date amenities. Our room came with a full kitchen, flat screen television, free Wi-Fi and a king sized bed. We had one minor issue, but Tammy the front desk manager personally came to our room and remedied the situation. Now that is customer service!!! All-in-all, a great time had by all.More</t>
   </si>
   <si>
+    <t>WearyTravels917</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r170316870-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1224,6 +1362,9 @@
     <t>I've stayed with this hotel chain several times because most low-rate hotels are sleazy motels. My experience with the staff has been great. It's usually the guests that are questionable: loud, bringing dogs down to the complimentary breakfast station unleashed; damaging hotel property (I can tell by the condition of the room that a guest just didn't care). My BIGGEST complaint about Extended Stay? Worst mattresses I ever slept on. Homeless shelters probably have better mattresses.More</t>
   </si>
   <si>
+    <t>Gawtti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r166513286-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1242,6 +1383,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Piichiez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r166365946-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1257,6 +1401,9 @@
     <t>This hotel is in the middle of everything.  The room is new, clean, and equipped with everything you need.  Grab-n-go breakfast is ok but not so much variety; as long as it is complimentary, I'm ok with that.Bathroom was clean but towels was dirty.</t>
   </si>
   <si>
+    <t>2013cali</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r155771176-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1281,6 +1428,9 @@
     <t>The room was somewhat clean. But I was scared to take off my shoes. Faint smell of smoke on towels and bedding. Do people jump up and down all night? Walls are extremely thin. The sheets had stains on them. I feel creepy crawlies in them. Overall haunted vibe. Should have gone to the Marriott. More</t>
   </si>
   <si>
+    <t>GMLOMALODGE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r155249269-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1308,6 +1458,9 @@
     <t>Very poor bedding cement would have felt better. No one at desk after 11 pm. Room outraged needs lots of maintenance. Really wanted a refund :(--- Guest service was not good at check in was on phone &amp; ignored us. Didn't tell us about property or area.More</t>
   </si>
   <si>
+    <t>1Dal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r154089842-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1332,6 +1485,9 @@
     <t>My home was getting fumigated so I needed to relocate for three days. The staff was outstanding! Especially Tammy. I was also able to bring our small dog. I really enjoyed my experience at this hotel.More</t>
   </si>
   <si>
+    <t>franci329</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r148193297-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1359,6 +1515,9 @@
     <t>Great if you need a little kitchen but I went out to eat each night. Lots of choices for dinner in the surrounding areas and close to the mall and beaches. 2nd floor must of been a smoking floor, not sure if it still is but it does have the smell. Bed was hard as a rock and the pillows were horrible. Bathroom is clean but the shower curtain was ripped and each morning at 5am it sounded like someone was drilling. Breakfast consisted of pre-wrapped muffins, package oatmeal a few pieces of fruit, coffee and tea. Front desk folks are very friendly and accomodating. Felt safe walking around.More</t>
   </si>
   <si>
+    <t>Roadwarrior Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r146406417-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1386,6 +1545,9 @@
     <t>I had an okay stay at this Extended Stay.  First the pros:1. Excellent customer service -- all the front desk staff I came across were friendly and kind, especially the weekend staff.  They also leave travel toiletries in a basket at the front desk in case you need them.2. Decent location. Close enough to major thoroughfares in Torrance, but on a fairly calm stretch of Torrance Blvd.3.  Good water pressure -- nice for showers.However, there were some cons that make it unlikely I would try to come back again:1. The bathroom was not very clean; there were hairs stuck to the side of the bathtub and the sink.2. Despite some renovations, the room definitely showed its age.  The screens on the windows were bent, the curtains did not close properly, and many things in the room (including kitchen appliances, closet and window areas, tub) looked old / discolored and very '70s.3. There was a very strange, intermittent, low rumble (which made the room vibrate) in the room -- I am a sound sleeper so could forget about it once I fell asleep, but it made being in the room a little annoying on some evenings.More</t>
   </si>
   <si>
+    <t>Cbrown1438</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r144712615-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1413,6 +1575,9 @@
     <t>I enjoyed my stay with Extended Stay very much.  The rooms are very clean, washer and dryers work great and the staff is what makes this place an A+. They were warm and friendly and extremely attentive. I'll definitely be backMore</t>
   </si>
   <si>
+    <t>Maurice C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r138724312-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1438,6 +1603,9 @@
   </si>
   <si>
     <t>From check in to check out every thing was great. Staff were warm and friendly and extremely attentive. Room was very clean and well appointed. Kitchen was a definite plusIf this Hotel is an example of the chain I will definitely use them againMore</t>
+  </si>
+  <si>
+    <t>Susan M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r138154194-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
@@ -1468,6 +1636,9 @@
 I had paid to stay for one week.  On my 5th night, I arrived at the hotel at 10:00 p.m.  My key did not work again.  So I went to the front desk and they re-activated my key.  I went to the room, opened the door, and I found a man in his underwear brushing his teeth in the bathroom.  As you can imagine, I was in SHOCK.  I ran to the...In August, I stayed at the Extended Stay America in Torrance for 1 week due to our kitchen remodel.  It was the most horrible experience I ever had.Upon check in, they gave me a room key that didn't work when I arrived at the room.  I had to get it replaced 3 times before it worked.  The corridor halls looked depressing and the room was not very nice.  It had a bed, bathroom and little kitchen area.  The room was very drab to stay in for any length of time.  When I arrived at the hotel, no one told me that I had to get basics like shampoo and a hair dryer from the front desk.  The hair dryer actually had to be checked out.  Because I didn't know, I had to catch an appt. the next morning with wet hair.  The room was dirty and depressing.  The minute I woke up, I wanted to run out of the room.  I couldn't relax in the room provided.I had paid to stay for one week.  On my 5th night, I arrived at the hotel at 10:00 p.m.  My key did not work again.  So I went to the front desk and they re-activated my key.  I went to the room, opened the door, and I found a man in his underwear brushing his teeth in the bathroom.  As you can imagine, I was in SHOCK.  I ran to the lobby and asked the worker why there was another man in my room.  The worker said they thought I left because I didn't have much stuff in the room.  So they proceeded to clean the room and empty everything I had in the refrigerator.  I was furious....I told her that I paid for 7 days.  It didn't matter if I did not have much stuff in the room.  Also, if in doubt, they should have called me.  I warned my husband who was coming later about what happened.  It took 1 1/2 hours for her to give us another room.  She gave us a handicapped room so it did not have a bathtub and counter next to the sink.  After I left, I completed a survey to let them know how terrible their hotel was.  The manager sent an email saying there was some miscommunications and he'd like to offer me a free night certificate.  I told him that I didn't want a free night.  I told the manager the proper compensation should be a credit for the last 2 night of inconvenience.  Well....he never replied to my request.  This showed me how much the staff and management does not care about people.After the week of horror, I found another extended stay hotel down the street since I needed a place for 2 more weeks.  It was a much better hotel with great service.More</t>
   </si>
   <si>
+    <t>Lori A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r137507871-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1492,6 +1663,9 @@
     <t>The hotel staff, from the manager all the way through to the house keeping staff are all very professional, helpful and friendly. The rooms were clean, the matresses and pillows were all new and the kitchen area was very convenient. Overall, this hotel is very fairly priced, and if you are looking for comfortable rooms with a very accomodating staff while staying within your budget, this hotel is a good choice.More</t>
   </si>
   <si>
+    <t>Gringgo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r129312481-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1519,6 +1693,9 @@
     <t>I stayed at this Extended Stay previously and it has been upgraded since then. It wasn't a complete renovation, but it is better than before with updated decor, mattresses and counter tops, maybe even carpet. The stay was uneventful and the price we received was a very good value for the location. The only items that I would mention are that the check-in was quite slow since there was only one employee at the desk (arrival around 6pm) and the shower head in our shower sounded like a train for some reason. It was very annoying since we had to adjust the water flow to get rid of it, multiple times. Also, I asked for a wine opener from the front desk and never received any response on its existence. At least call me and tell me that you don't have one.More</t>
   </si>
   <si>
+    <t>stltrys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r127392096-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
   </si>
   <si>
@@ -1535,6 +1712,9 @@
   </si>
   <si>
     <t>We just arrived and after two uses of the toilet, the water overflowed and all we were given was a plunger!....Not after my husband and I started fighting that they realized that we weren't in a good condition...then we were offered another room. Before booking this room I read few reviews here and majority of them were ok reviews. Average and a good clean motel for a good value. Since we're staying only for a night, I decided to book it, anyway it's just for a night. Nothing won't go wrong. And then the unexpected happened. I read that this was also newly renovated but why a bad toilet with bad plumbing? Water even leaked down the reception area since we were at the second level. I have to give credit to the clean room and a nice kitchen area, and yeah they provide more pillows too. That's it.More</t>
+  </si>
+  <si>
+    <t>California9</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d251268-r124456712-Extended_Stay_America_Los_Angeles_Torrance_Blvd-Torrance_California.html</t>
@@ -2066,43 +2246,47 @@
       <c r="A2" t="n">
         <v>35838</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
@@ -2124,56 +2308,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35838</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146434</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -2195,56 +2383,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35838</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146435</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2266,56 +2458,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35838</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146436</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2327,47 +2523,51 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35838</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146437</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -2384,56 +2584,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35838</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146438</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2445,56 +2649,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35838</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146439</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2516,56 +2724,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35838</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146440</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2587,56 +2799,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35838</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146441</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2658,56 +2874,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35838</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2729,56 +2949,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35838</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146443</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -2800,56 +3024,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35838</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146444</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2871,56 +3099,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35838</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146445</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2942,56 +3174,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35838</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146446</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3013,56 +3249,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="X15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35838</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146447</v>
+      </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="J16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -3084,56 +3324,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="X16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35838</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146448</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3151,56 +3395,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="X17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35838</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146449</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3218,56 +3466,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="X18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Y18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35838</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146450</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3283,56 +3535,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="X19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="Y19" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35838</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146451</v>
+      </c>
+      <c r="C20" t="s">
+        <v>223</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="J20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="K20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3350,56 +3606,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="X20" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="Y20" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35838</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146452</v>
+      </c>
+      <c r="C21" t="s">
+        <v>233</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="J21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="K21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="L21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="O21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3411,56 +3671,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="X21" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="Y21" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>35838</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146453</v>
+      </c>
+      <c r="C22" t="s">
+        <v>243</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="J22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="K22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="L22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="O22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -3478,56 +3742,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="X22" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="Y22" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35838</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146454</v>
+      </c>
+      <c r="C23" t="s">
+        <v>252</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="K23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="O23" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3545,56 +3813,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="X23" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="Y23" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35838</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146455</v>
+      </c>
+      <c r="C24" t="s">
+        <v>262</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="J24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="K24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="L24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3612,56 +3884,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="X24" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="Y24" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35838</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146456</v>
+      </c>
+      <c r="C25" t="s">
+        <v>271</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="K25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="O25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3673,56 +3949,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="X25" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="Y25" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35838</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>1646</v>
+      </c>
+      <c r="C26" t="s">
+        <v>280</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="J26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="L26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="O26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3740,56 +4020,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="X26" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="Y26" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35838</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146457</v>
+      </c>
+      <c r="C27" t="s">
+        <v>290</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="J27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="K27" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="L27" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="O27" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3805,56 +4089,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="X27" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="Y27" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>35838</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146458</v>
+      </c>
+      <c r="C28" t="s">
+        <v>300</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="J28" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="K28" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="L28" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3872,50 +4160,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>35838</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146459</v>
+      </c>
+      <c r="C29" t="s">
+        <v>307</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="J29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="K29" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="L29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3935,50 +4227,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>35838</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>9399</v>
+      </c>
+      <c r="C30" t="s">
+        <v>314</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="J30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="K30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3998,50 +4294,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>35838</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146460</v>
+      </c>
+      <c r="C31" t="s">
+        <v>320</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="J31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="K31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="L31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -4061,50 +4361,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>35838</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146461</v>
+      </c>
+      <c r="C32" t="s">
+        <v>327</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="J32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="K32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="L32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4124,41 +4428,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>35838</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146462</v>
+      </c>
+      <c r="C33" t="s">
+        <v>335</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="J33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="K33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="L33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
@@ -4187,50 +4495,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>35838</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>105293</v>
+      </c>
+      <c r="C34" t="s">
+        <v>341</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="J34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="L34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4244,50 +4556,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>35838</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146463</v>
+      </c>
+      <c r="C35" t="s">
+        <v>348</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="J35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="K35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="L35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4307,50 +4623,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35838</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146464</v>
+      </c>
+      <c r="C36" t="s">
+        <v>355</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="J36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="K36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="L36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4370,50 +4690,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35838</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146465</v>
+      </c>
+      <c r="C37" t="s">
+        <v>362</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="J37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="K37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="L37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4431,56 +4755,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="X37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35838</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>3032</v>
+      </c>
+      <c r="C38" t="s">
+        <v>371</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="J38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="K38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="L38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P38" t="n">
         <v>2</v>
@@ -4504,50 +4832,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>35838</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>48913</v>
+      </c>
+      <c r="C39" t="s">
+        <v>378</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="J39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="K39" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="L39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="O39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -4571,41 +4903,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>35838</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>146466</v>
+      </c>
+      <c r="C40" t="s">
+        <v>385</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="J40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="K40" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="L40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -4634,50 +4970,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>35838</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146467</v>
+      </c>
+      <c r="C41" t="s">
+        <v>391</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="J41" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="K41" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="L41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4699,41 +5039,45 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>35838</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146468</v>
+      </c>
+      <c r="C42" t="s">
+        <v>398</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="J42" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="K42" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="L42" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
@@ -4762,50 +5106,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>35838</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146469</v>
+      </c>
+      <c r="C43" t="s">
+        <v>405</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="J43" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="K43" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="L43" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="O43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4829,50 +5177,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>35838</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>2466</v>
+      </c>
+      <c r="C44" t="s">
+        <v>412</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="J44" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="K44" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="L44" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4896,50 +5248,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>35838</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>12881</v>
+      </c>
+      <c r="C45" t="s">
+        <v>419</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="J45" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="K45" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="L45" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="O45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4963,50 +5319,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>35838</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>2273</v>
+      </c>
+      <c r="C46" t="s">
+        <v>427</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="J46" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="K46" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="L46" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5028,47 +5388,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="X46" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="Y46" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>35838</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146470</v>
+      </c>
+      <c r="C47" t="s">
+        <v>437</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="J47" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="K47" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="L47" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
@@ -5095,56 +5459,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="X47" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="Y47" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>35838</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146471</v>
+      </c>
+      <c r="C48" t="s">
+        <v>446</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="J48" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="K48" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="L48" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="O48" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5168,50 +5536,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>35838</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146472</v>
+      </c>
+      <c r="C49" t="s">
+        <v>453</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="J49" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="K49" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="L49" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5235,41 +5607,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>35838</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146473</v>
+      </c>
+      <c r="C50" t="s">
+        <v>459</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="J50" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="K50" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="L50" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
@@ -5296,56 +5672,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="X50" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="Y50" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>35838</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146474</v>
+      </c>
+      <c r="C51" t="s">
+        <v>468</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="J51" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="K51" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="L51" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="O51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5367,47 +5747,51 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="X51" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="Y51" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>35838</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146475</v>
+      </c>
+      <c r="C52" t="s">
+        <v>478</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="J52" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="K52" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="L52" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
@@ -5434,56 +5818,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="X52" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="Y52" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>35838</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146476</v>
+      </c>
+      <c r="C53" t="s">
+        <v>487</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="J53" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="K53" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="L53" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="O53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5505,56 +5893,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="X53" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="Y53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>35838</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146477</v>
+      </c>
+      <c r="C54" t="s">
+        <v>497</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="J54" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="K54" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="L54" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="O54" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5576,56 +5968,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="X54" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="Y54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>35838</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146478</v>
+      </c>
+      <c r="C55" t="s">
+        <v>507</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="J55" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="K55" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="L55" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="O55" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5647,56 +6043,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="X55" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="Y55" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>35838</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146479</v>
+      </c>
+      <c r="C56" t="s">
+        <v>517</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="J56" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="K56" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="L56" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="O56" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5718,56 +6118,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="X56" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="Y56" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>35838</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>4311</v>
+      </c>
+      <c r="C57" t="s">
+        <v>527</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="J57" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="K57" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="L57" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="O57" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5789,56 +6193,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="X57" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="Y57" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>35838</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>23637</v>
+      </c>
+      <c r="C58" t="s">
+        <v>536</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="J58" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="K58" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="L58" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5860,56 +6268,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="X58" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="Y58" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>35838</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>146480</v>
+      </c>
+      <c r="C59" t="s">
+        <v>545</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="J59" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="K59" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="L59" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5931,56 +6343,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="X59" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="Y59" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>35838</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146481</v>
+      </c>
+      <c r="C60" t="s">
+        <v>555</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="J60" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="K60" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="L60" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -6002,56 +6418,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="X60" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="Y60" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>35838</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146482</v>
+      </c>
+      <c r="C61" t="s">
+        <v>562</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="J61" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="K61" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="L61" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="O61" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6073,13 +6493,13 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="X61" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="Y61" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_263.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_263.xlsx
@@ -2322,7 +2322,7 @@
         <v>35838</v>
       </c>
       <c r="B3" t="n">
-        <v>146434</v>
+        <v>177775</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2397,7 +2397,7 @@
         <v>35838</v>
       </c>
       <c r="B4" t="n">
-        <v>146435</v>
+        <v>177776</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -2472,7 +2472,7 @@
         <v>35838</v>
       </c>
       <c r="B5" t="n">
-        <v>146436</v>
+        <v>177777</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
@@ -2537,7 +2537,7 @@
         <v>35838</v>
       </c>
       <c r="B6" t="n">
-        <v>146437</v>
+        <v>177778</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
@@ -2598,7 +2598,7 @@
         <v>35838</v>
       </c>
       <c r="B7" t="n">
-        <v>146438</v>
+        <v>177779</v>
       </c>
       <c r="C7" t="s">
         <v>100</v>
@@ -2663,7 +2663,7 @@
         <v>35838</v>
       </c>
       <c r="B8" t="n">
-        <v>146439</v>
+        <v>177780</v>
       </c>
       <c r="C8" t="s">
         <v>110</v>
@@ -2738,7 +2738,7 @@
         <v>35838</v>
       </c>
       <c r="B9" t="n">
-        <v>146440</v>
+        <v>177781</v>
       </c>
       <c r="C9" t="s">
         <v>120</v>
@@ -2813,7 +2813,7 @@
         <v>35838</v>
       </c>
       <c r="B10" t="n">
-        <v>146441</v>
+        <v>177782</v>
       </c>
       <c r="C10" t="s">
         <v>129</v>
@@ -2888,7 +2888,7 @@
         <v>35838</v>
       </c>
       <c r="B11" t="n">
-        <v>146442</v>
+        <v>177783</v>
       </c>
       <c r="C11" t="s">
         <v>138</v>
@@ -2963,7 +2963,7 @@
         <v>35838</v>
       </c>
       <c r="B12" t="n">
-        <v>146443</v>
+        <v>177784</v>
       </c>
       <c r="C12" t="s">
         <v>147</v>
@@ -3038,7 +3038,7 @@
         <v>35838</v>
       </c>
       <c r="B13" t="n">
-        <v>146444</v>
+        <v>177785</v>
       </c>
       <c r="C13" t="s">
         <v>156</v>
@@ -3113,7 +3113,7 @@
         <v>35838</v>
       </c>
       <c r="B14" t="n">
-        <v>146445</v>
+        <v>177786</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -3188,7 +3188,7 @@
         <v>35838</v>
       </c>
       <c r="B15" t="n">
-        <v>146446</v>
+        <v>177787</v>
       </c>
       <c r="C15" t="s">
         <v>175</v>
@@ -3263,7 +3263,7 @@
         <v>35838</v>
       </c>
       <c r="B16" t="n">
-        <v>146447</v>
+        <v>177788</v>
       </c>
       <c r="C16" t="s">
         <v>184</v>
@@ -3338,7 +3338,7 @@
         <v>35838</v>
       </c>
       <c r="B17" t="n">
-        <v>146448</v>
+        <v>177789</v>
       </c>
       <c r="C17" t="s">
         <v>194</v>
@@ -3409,7 +3409,7 @@
         <v>35838</v>
       </c>
       <c r="B18" t="n">
-        <v>146449</v>
+        <v>177790</v>
       </c>
       <c r="C18" t="s">
         <v>204</v>
@@ -3480,7 +3480,7 @@
         <v>35838</v>
       </c>
       <c r="B19" t="n">
-        <v>146450</v>
+        <v>177791</v>
       </c>
       <c r="C19" t="s">
         <v>213</v>
@@ -3549,7 +3549,7 @@
         <v>35838</v>
       </c>
       <c r="B20" t="n">
-        <v>146451</v>
+        <v>177792</v>
       </c>
       <c r="C20" t="s">
         <v>223</v>
@@ -3620,7 +3620,7 @@
         <v>35838</v>
       </c>
       <c r="B21" t="n">
-        <v>146452</v>
+        <v>177793</v>
       </c>
       <c r="C21" t="s">
         <v>233</v>
@@ -3685,7 +3685,7 @@
         <v>35838</v>
       </c>
       <c r="B22" t="n">
-        <v>146453</v>
+        <v>177794</v>
       </c>
       <c r="C22" t="s">
         <v>243</v>
@@ -3756,7 +3756,7 @@
         <v>35838</v>
       </c>
       <c r="B23" t="n">
-        <v>146454</v>
+        <v>177795</v>
       </c>
       <c r="C23" t="s">
         <v>252</v>
@@ -3827,7 +3827,7 @@
         <v>35838</v>
       </c>
       <c r="B24" t="n">
-        <v>146455</v>
+        <v>177796</v>
       </c>
       <c r="C24" t="s">
         <v>262</v>
@@ -3898,7 +3898,7 @@
         <v>35838</v>
       </c>
       <c r="B25" t="n">
-        <v>146456</v>
+        <v>177797</v>
       </c>
       <c r="C25" t="s">
         <v>271</v>
@@ -4034,7 +4034,7 @@
         <v>35838</v>
       </c>
       <c r="B27" t="n">
-        <v>146457</v>
+        <v>177798</v>
       </c>
       <c r="C27" t="s">
         <v>290</v>
@@ -4103,7 +4103,7 @@
         <v>35838</v>
       </c>
       <c r="B28" t="n">
-        <v>146458</v>
+        <v>177799</v>
       </c>
       <c r="C28" t="s">
         <v>300</v>
@@ -4168,7 +4168,7 @@
         <v>35838</v>
       </c>
       <c r="B29" t="n">
-        <v>146459</v>
+        <v>177800</v>
       </c>
       <c r="C29" t="s">
         <v>307</v>
@@ -4302,7 +4302,7 @@
         <v>35838</v>
       </c>
       <c r="B31" t="n">
-        <v>146460</v>
+        <v>177801</v>
       </c>
       <c r="C31" t="s">
         <v>320</v>
@@ -4369,7 +4369,7 @@
         <v>35838</v>
       </c>
       <c r="B32" t="n">
-        <v>146461</v>
+        <v>177802</v>
       </c>
       <c r="C32" t="s">
         <v>327</v>
@@ -4436,7 +4436,7 @@
         <v>35838</v>
       </c>
       <c r="B33" t="n">
-        <v>146462</v>
+        <v>177803</v>
       </c>
       <c r="C33" t="s">
         <v>335</v>
@@ -4564,7 +4564,7 @@
         <v>35838</v>
       </c>
       <c r="B35" t="n">
-        <v>146463</v>
+        <v>177804</v>
       </c>
       <c r="C35" t="s">
         <v>348</v>
@@ -4631,7 +4631,7 @@
         <v>35838</v>
       </c>
       <c r="B36" t="n">
-        <v>146464</v>
+        <v>177805</v>
       </c>
       <c r="C36" t="s">
         <v>355</v>
@@ -4698,7 +4698,7 @@
         <v>35838</v>
       </c>
       <c r="B37" t="n">
-        <v>146465</v>
+        <v>177806</v>
       </c>
       <c r="C37" t="s">
         <v>362</v>
@@ -4911,7 +4911,7 @@
         <v>35838</v>
       </c>
       <c r="B40" t="n">
-        <v>146466</v>
+        <v>177807</v>
       </c>
       <c r="C40" t="s">
         <v>385</v>
@@ -4978,7 +4978,7 @@
         <v>35838</v>
       </c>
       <c r="B41" t="n">
-        <v>146467</v>
+        <v>177808</v>
       </c>
       <c r="C41" t="s">
         <v>391</v>
@@ -5047,7 +5047,7 @@
         <v>35838</v>
       </c>
       <c r="B42" t="n">
-        <v>146468</v>
+        <v>177809</v>
       </c>
       <c r="C42" t="s">
         <v>398</v>
@@ -5114,7 +5114,7 @@
         <v>35838</v>
       </c>
       <c r="B43" t="n">
-        <v>146469</v>
+        <v>177810</v>
       </c>
       <c r="C43" t="s">
         <v>405</v>
@@ -5402,7 +5402,7 @@
         <v>35838</v>
       </c>
       <c r="B47" t="n">
-        <v>146470</v>
+        <v>177811</v>
       </c>
       <c r="C47" t="s">
         <v>437</v>
@@ -5473,7 +5473,7 @@
         <v>35838</v>
       </c>
       <c r="B48" t="n">
-        <v>146471</v>
+        <v>177812</v>
       </c>
       <c r="C48" t="s">
         <v>446</v>
@@ -5544,7 +5544,7 @@
         <v>35838</v>
       </c>
       <c r="B49" t="n">
-        <v>146472</v>
+        <v>177813</v>
       </c>
       <c r="C49" t="s">
         <v>453</v>
@@ -5615,7 +5615,7 @@
         <v>35838</v>
       </c>
       <c r="B50" t="n">
-        <v>146473</v>
+        <v>177814</v>
       </c>
       <c r="C50" t="s">
         <v>459</v>
@@ -5686,7 +5686,7 @@
         <v>35838</v>
       </c>
       <c r="B51" t="n">
-        <v>146474</v>
+        <v>177815</v>
       </c>
       <c r="C51" t="s">
         <v>468</v>
@@ -5761,7 +5761,7 @@
         <v>35838</v>
       </c>
       <c r="B52" t="n">
-        <v>146475</v>
+        <v>177816</v>
       </c>
       <c r="C52" t="s">
         <v>478</v>
@@ -5832,7 +5832,7 @@
         <v>35838</v>
       </c>
       <c r="B53" t="n">
-        <v>146476</v>
+        <v>177817</v>
       </c>
       <c r="C53" t="s">
         <v>487</v>
@@ -5907,7 +5907,7 @@
         <v>35838</v>
       </c>
       <c r="B54" t="n">
-        <v>146477</v>
+        <v>177818</v>
       </c>
       <c r="C54" t="s">
         <v>497</v>
@@ -5982,7 +5982,7 @@
         <v>35838</v>
       </c>
       <c r="B55" t="n">
-        <v>146478</v>
+        <v>177819</v>
       </c>
       <c r="C55" t="s">
         <v>507</v>
@@ -6057,7 +6057,7 @@
         <v>35838</v>
       </c>
       <c r="B56" t="n">
-        <v>146479</v>
+        <v>177820</v>
       </c>
       <c r="C56" t="s">
         <v>517</v>
@@ -6282,7 +6282,7 @@
         <v>35838</v>
       </c>
       <c r="B59" t="n">
-        <v>146480</v>
+        <v>177821</v>
       </c>
       <c r="C59" t="s">
         <v>545</v>
@@ -6357,7 +6357,7 @@
         <v>35838</v>
       </c>
       <c r="B60" t="n">
-        <v>146481</v>
+        <v>177822</v>
       </c>
       <c r="C60" t="s">
         <v>555</v>
@@ -6432,7 +6432,7 @@
         <v>35838</v>
       </c>
       <c r="B61" t="n">
-        <v>146482</v>
+        <v>177823</v>
       </c>
       <c r="C61" t="s">
         <v>562</v>
